--- a/Input_TestData/ExcelSheet_TestData_UI.xlsx
+++ b/Input_TestData/ExcelSheet_TestData_UI.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\All_In_One\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik.hussain\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BD02B07-55E6-4295-9044-03BE19E0A0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FBEF72-0881-46BA-A9CC-779B8F5E6559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alphaSheet" sheetId="1" r:id="rId1"/>
     <sheet name="betaSheet" sheetId="2" r:id="rId2"/>
     <sheet name="realTime" sheetId="3" r:id="rId3"/>
+    <sheet name="createRG" sheetId="4" r:id="rId4"/>
+    <sheet name="preLaunch" sheetId="5" r:id="rId5"/>
+    <sheet name="DQA" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="122">
   <si>
     <t>attribute1</t>
   </si>
@@ -276,6 +279,123 @@
   </si>
   <si>
     <t>543543</t>
+  </si>
+  <si>
+    <t>happyPath</t>
+  </si>
+  <si>
+    <t>contactType</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>preferredMethod</t>
+  </si>
+  <si>
+    <t>sameAsRequestGroup</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Billing</t>
+  </si>
+  <si>
+    <t>Phi Automation Team</t>
+  </si>
+  <si>
+    <t>Testing Team</t>
+  </si>
+  <si>
+    <t>phiteam@test.com</t>
+  </si>
+  <si>
+    <t>US/Alaska</t>
+  </si>
+  <si>
+    <t>8,</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>"9642869555"</t>
+  </si>
+  <si>
+    <t>"8"</t>
+  </si>
+  <si>
+    <t>"8529637415"</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>requestGroupName</t>
+  </si>
+  <si>
+    <t>timeZoneRG</t>
+  </si>
+  <si>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>retrievalMethods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vinay Automation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Automated Instructions </t>
+  </si>
+  <si>
+    <t>wfSettingOwner</t>
+  </si>
+  <si>
+    <t>Zakirshaik</t>
+  </si>
+  <si>
+    <t>timeZoneContact</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>onlyOwnerWork</t>
+  </si>
+  <si>
+    <t>ContactWillLetter</t>
+  </si>
+  <si>
+    <t>ContactWillConfirm</t>
+  </si>
+  <si>
+    <t>ExcludeFromBulk</t>
+  </si>
+  <si>
+    <t>ReasonExclusion</t>
+  </si>
+  <si>
+    <t>WebSite</t>
   </si>
 </sst>
 </file>
@@ -318,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -354,11 +474,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -370,6 +501,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,21 +802,21 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="8"/>
-    <col min="10" max="10" width="9.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="8"/>
+    <col min="1" max="1" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.08984375" style="8"/>
+    <col min="10" max="10" width="9.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.90625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.08984375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -696,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>54</v>
@@ -717,7 +863,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -737,7 +883,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -752,7 +898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -778,7 +924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>65</v>
@@ -799,7 +945,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -837,7 +983,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>79</v>
@@ -870,7 +1016,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
@@ -890,7 +1036,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>71</v>
@@ -920,19 +1066,19 @@
       <selection activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -958,7 +1104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -979,7 +1125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -999,7 +1145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -1014,7 +1160,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1040,7 +1186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1061,7 +1207,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1099,7 +1245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1141,19 +1287,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0703D59-0802-4774-9111-52139DE76A14}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -1167,7 +1313,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>75</v>
@@ -1180,4 +1326,206 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91C4FB-E20E-468F-AACF-33BCD7A988CB}">
+  <dimension ref="A1:AE2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="30" width="8.7265625" style="11"/>
+    <col min="31" max="31" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.7265625" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="T1" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="U1" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="V1" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE1" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="T2" s="8"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{EB69ADFB-3F18-4E42-A89A-39D385ED211C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C717FB09-8AC9-4ACF-9A0D-A8BA9DFD45B9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB2257F-F658-4FDD-978C-30EFA3D235AE}">
+  <dimension ref="P12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="12" spans="16:16" x14ac:dyDescent="0.35">
+      <c r="P12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Input_TestData/ExcelSheet_TestData_UI.xlsx
+++ b/Input_TestData/ExcelSheet_TestData_UI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik.hussain\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FBEF72-0881-46BA-A9CC-779B8F5E6559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E1D03-57D6-4B2A-A8D8-EA01A026C12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
   <si>
     <t>attribute1</t>
   </si>
@@ -396,6 +396,57 @@
   </si>
   <si>
     <t>WebSite</t>
+  </si>
+  <si>
+    <t>MS_AttnTo</t>
+  </si>
+  <si>
+    <t>MS_Address</t>
+  </si>
+  <si>
+    <t>MS_Address_Line2</t>
+  </si>
+  <si>
+    <t>MS__City</t>
+  </si>
+  <si>
+    <t>MS_State</t>
+  </si>
+  <si>
+    <t>MS_Zip_Code</t>
+  </si>
+  <si>
+    <t>LP_SendingLetterCheck_ddl</t>
+  </si>
+  <si>
+    <t>Usefacility_Checkbox</t>
+  </si>
+  <si>
+    <t>Groupletter_Checkbox</t>
+  </si>
+  <si>
+    <t>Lettersforbatch_Checkbox</t>
+  </si>
+  <si>
+    <t>Claimentity_Checkbox</t>
+  </si>
+  <si>
+    <t>Facilityaddress_Checkbox</t>
+  </si>
+  <si>
+    <t>PatientName_Checkbox</t>
+  </si>
+  <si>
+    <t>PatientDOB_Checkbox</t>
+  </si>
+  <si>
+    <t>PatientAddress_Checkbox</t>
+  </si>
+  <si>
+    <t>PatientAge_Checkbox</t>
+  </si>
+  <si>
+    <t>PatientPhone_Checkb</t>
   </si>
 </sst>
 </file>
@@ -424,7 +475,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +485,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,10 +567,10 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1330,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91C4FB-E20E-468F-AACF-33BCD7A988CB}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AR2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AP7" sqref="AP7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1360,12 +1417,29 @@
     <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="30" width="8.7265625" style="11"/>
-    <col min="31" max="31" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.7265625" style="11"/>
+    <col min="23" max="23" width="8.7265625" style="11"/>
+    <col min="24" max="24" width="10.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7265625" style="11"/>
+    <col min="28" max="28" width="8.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="24.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="23.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="19.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="43" width="8.7265625" style="11"/>
+    <col min="44" max="44" width="10" style="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="16384" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>83</v>
       </c>
@@ -1417,29 +1491,78 @@
       <c r="Q1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="X1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y1" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z1" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AA1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB1" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="AC1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD1" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AE1" s="15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH1" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="AJ1" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL1" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM1" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN1" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="AR1" s="15"/>
+    </row>
+    <row r="2" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>92</v>
       </c>

--- a/Input_TestData/ExcelSheet_TestData_UI.xlsx
+++ b/Input_TestData/ExcelSheet_TestData_UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6E1D03-57D6-4B2A-A8D8-EA01A026C12B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED55251B-5BD9-4179-8B47-5A1076C27C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="171">
   <si>
     <t>attribute1</t>
   </si>
@@ -446,7 +446,103 @@
     <t>PatientAge_Checkbox</t>
   </si>
   <si>
-    <t>PatientPhone_Checkb</t>
+    <t>PatientEmail_Checkbox</t>
+  </si>
+  <si>
+    <t>ProviderName_Checkbox</t>
+  </si>
+  <si>
+    <t>PatientPhone_Checkbox</t>
+  </si>
+  <si>
+    <t>ProviderVerification_Checkbox</t>
+  </si>
+  <si>
+    <t>Project_Checkbox</t>
+  </si>
+  <si>
+    <t>DateofService_Checkbox</t>
+  </si>
+  <si>
+    <t>AdditionalNote_Checkbox</t>
+  </si>
+  <si>
+    <t>Cardtype_ddl</t>
+  </si>
+  <si>
+    <t>PaymentPreference_DDL</t>
+  </si>
+  <si>
+    <t>PayVia_ddl</t>
+  </si>
+  <si>
+    <t>PayPreference_CheckDDL</t>
+  </si>
+  <si>
+    <t>PaymentPreference_None</t>
+  </si>
+  <si>
+    <t>ReturnPreference_DDL</t>
+  </si>
+  <si>
+    <t>SP_DDL</t>
+  </si>
+  <si>
+    <t>SP_Usemailaddress_Checkbox</t>
+  </si>
+  <si>
+    <t>SP_AttnTo_textbox</t>
+  </si>
+  <si>
+    <t>SP_Address_textbox</t>
+  </si>
+  <si>
+    <t>SP_Addressline2_Textbox</t>
+  </si>
+  <si>
+    <t>SPCity_Textbox</t>
+  </si>
+  <si>
+    <t>SPState_DDL</t>
+  </si>
+  <si>
+    <t>SP_ZipCode_Textbox</t>
+  </si>
+  <si>
+    <t>SPOverride1_ddl</t>
+  </si>
+  <si>
+    <t>SPOverride1_AttnTo_Textbox</t>
+  </si>
+  <si>
+    <t>SPOverride1_Address_Textbox</t>
+  </si>
+  <si>
+    <t>SPOverride1_AddressLine2_Textbox</t>
+  </si>
+  <si>
+    <t>SPOverride1_City_Textbox</t>
+  </si>
+  <si>
+    <t>SPOverride1_State_Textbox</t>
+  </si>
+  <si>
+    <t>SPOverride1_Zipcode_Textbox</t>
+  </si>
+  <si>
+    <t>SPOverride1__UseRequest_Checkbox</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>www.phiteam.com</t>
+  </si>
+  <si>
+    <t>Need account number/other info added to request</t>
   </si>
 </sst>
 </file>
@@ -1387,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91C4FB-E20E-468F-AACF-33BCD7A988CB}">
-  <dimension ref="A1:AR2"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AP7" sqref="AP7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1416,8 +1512,8 @@
     <col min="19" max="19" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7265625" style="11"/>
+    <col min="22" max="22" width="44.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.36328125" style="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="11.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
@@ -1434,12 +1530,39 @@
     <col min="37" max="37" width="19.90625" style="11" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="23.08984375" style="11" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="19.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="43" width="8.7265625" style="11"/>
-    <col min="44" max="44" width="10" style="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="8.7265625" style="11"/>
+    <col min="40" max="40" width="21.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.453125" style="11" customWidth="1"/>
+    <col min="48" max="48" width="12.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="22.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.6328125" style="11" customWidth="1"/>
+    <col min="53" max="53" width="7.6328125" style="11" customWidth="1"/>
+    <col min="54" max="54" width="27.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="19" style="11" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="18.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="22.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="13.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="11.36328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="14.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="26.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="27.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="31.6328125" style="11" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="23.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="24.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="26.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="32.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>83</v>
       </c>
@@ -1558,11 +1681,94 @@
         <v>137</v>
       </c>
       <c r="AN1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO1" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="AR1" s="15"/>
-    </row>
-    <row r="2" spans="1:44" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="AP1" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AR1" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS1" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="AT1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AU1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="AV1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="AW1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="AY1" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AZ1" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="BA1" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="BB1" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="BC1" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="BD1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="BE1" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="BF1" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="BG1" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="BH1" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="BI1" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="BJ1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="BK1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="BM1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="BN1" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="BO1" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="BP1" s="14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>92</v>
       </c>
@@ -1611,11 +1817,32 @@
       <c r="Q2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="T2" s="8"/>
+      <c r="R2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{EB69ADFB-3F18-4E42-A89A-39D385ED211C}"/>
+    <hyperlink ref="W2" r:id="rId2" xr:uid="{4B6AA15B-5658-44FA-86E3-E2F03BEA3927}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Input_TestData/ExcelSheet_TestData_UI.xlsx
+++ b/Input_TestData/ExcelSheet_TestData_UI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik.hussain\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED55251B-5BD9-4179-8B47-5A1076C27C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE219647-C37A-4D57-B20B-DC17600C981B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="190">
   <si>
     <t>attribute1</t>
   </si>
@@ -380,9 +380,6 @@
     <t>None</t>
   </si>
   <si>
-    <t>onlyOwnerWork</t>
-  </si>
-  <si>
     <t>ContactWillLetter</t>
   </si>
   <si>
@@ -398,24 +395,6 @@
     <t>WebSite</t>
   </si>
   <si>
-    <t>MS_AttnTo</t>
-  </si>
-  <si>
-    <t>MS_Address</t>
-  </si>
-  <si>
-    <t>MS_Address_Line2</t>
-  </si>
-  <si>
-    <t>MS__City</t>
-  </si>
-  <si>
-    <t>MS_State</t>
-  </si>
-  <si>
-    <t>MS_Zip_Code</t>
-  </si>
-  <si>
     <t>LP_SendingLetterCheck_ddl</t>
   </si>
   <si>
@@ -476,21 +455,12 @@
     <t>PayVia_ddl</t>
   </si>
   <si>
-    <t>PayPreference_CheckDDL</t>
-  </si>
-  <si>
-    <t>PaymentPreference_None</t>
-  </si>
-  <si>
     <t>ReturnPreference_DDL</t>
   </si>
   <si>
     <t>SP_DDL</t>
   </si>
   <si>
-    <t>SP_Usemailaddress_Checkbox</t>
-  </si>
-  <si>
     <t>SP_AttnTo_textbox</t>
   </si>
   <si>
@@ -543,6 +513,93 @@
   </si>
   <si>
     <t>Need account number/other info added to request</t>
+  </si>
+  <si>
+    <t>MA_AttnTo</t>
+  </si>
+  <si>
+    <t>Kurnool</t>
+  </si>
+  <si>
+    <t>MA_Address</t>
+  </si>
+  <si>
+    <t>MA_Address_Line2</t>
+  </si>
+  <si>
+    <t>MA__City</t>
+  </si>
+  <si>
+    <t>MA_State</t>
+  </si>
+  <si>
+    <t>MA_Zip_Code</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>Credit Card</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>SP_Usemainaddress_Checkbox</t>
+  </si>
+  <si>
+    <t>PrakashNagar</t>
+  </si>
+  <si>
+    <t>Colony1</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>"55447"</t>
+  </si>
+  <si>
+    <t>Arif</t>
+  </si>
+  <si>
+    <t>Ghandi Nagar</t>
+  </si>
+  <si>
+    <t>Road No4</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>84043</t>
+  </si>
+  <si>
+    <t>"51524"</t>
+  </si>
+  <si>
+    <t>Santosh Nagar</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>OnlyOwnerWork</t>
+  </si>
+  <si>
+    <t>Naipet</t>
+  </si>
+  <si>
+    <t>Select Preference</t>
+  </si>
+  <si>
+    <t>Kothapeta</t>
   </si>
 </sst>
 </file>
@@ -642,7 +699,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -667,6 +724,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -955,21 +1018,21 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" style="8"/>
-    <col min="10" max="10" width="9.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.90625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.08984375" style="8"/>
+    <col min="1" max="1" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="9.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -995,7 +1058,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>54</v>
@@ -1016,7 +1079,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1036,7 +1099,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -1051,7 +1114,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1077,7 +1140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>65</v>
@@ -1098,7 +1161,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1136,7 +1199,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>79</v>
@@ -1169,7 +1232,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
@@ -1189,7 +1252,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>71</v>
@@ -1219,19 +1282,19 @@
       <selection activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1257,7 +1320,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1278,7 +1341,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1298,7 +1361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -1313,7 +1376,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1339,7 +1402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1360,7 +1423,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1398,7 +1461,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1444,15 +1507,15 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -1466,7 +1529,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>75</v>
@@ -1485,84 +1548,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91C4FB-E20E-468F-AACF-33BCD7A988CB}">
   <dimension ref="A1:BP2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BF1" sqref="BF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7265625" style="11"/>
-    <col min="28" max="28" width="8.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="24.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="23.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="19.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.453125" style="11" customWidth="1"/>
-    <col min="48" max="48" width="12.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="22.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="23.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.6328125" style="11" customWidth="1"/>
-    <col min="53" max="53" width="7.6328125" style="11" customWidth="1"/>
-    <col min="54" max="54" width="27.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="18.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="22.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="13.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="11.36328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="18.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="14.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="26.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="27.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="31.6328125" style="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="23.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="24.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="26.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="32.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="8.7265625" style="11"/>
+    <col min="5" max="5" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="44.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="26.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.42578125" style="11" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" style="11" customWidth="1"/>
+    <col min="51" max="51" width="7.5703125" style="11" customWidth="1"/>
+    <col min="52" max="52" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="19" style="11" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16" style="11" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="27.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="32.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="67" max="68" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="69" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>83</v>
       </c>
@@ -1614,161 +1675,161 @@
       <c r="Q1" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="R1" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="S1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="T1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="U1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="V1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="W1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="X1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y1" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AD1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="AE1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AF1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AG1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AH1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AI1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AD1" s="14" t="s">
+      <c r="AK1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AL1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="AF1" s="14" t="s">
+      <c r="AM1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" s="14" t="s">
+      <c r="AN1" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AH1" s="14" t="s">
+      <c r="AP1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AI1" s="14" t="s">
-        <v>133</v>
-      </c>
-      <c r="AJ1" s="14" t="s">
+      <c r="AQ1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AK1" s="14" t="s">
+      <c r="AR1" s="17" t="s">
         <v>135</v>
       </c>
-      <c r="AL1" s="14" t="s">
+      <c r="AS1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AM1" s="14" t="s">
+      <c r="AT1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AN1" s="14" t="s">
+      <c r="AU1" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AW1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AO1" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AX1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AY1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AZ1" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BA1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="AT1" s="14" t="s">
+      <c r="BB1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="AU1" s="14" t="s">
+      <c r="BC1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BD1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="AV1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="AW1" s="14" t="s">
+      <c r="BE1" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="BF1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="AY1" s="14" t="s">
+      <c r="BG1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="AZ1" s="14" t="s">
+      <c r="BH1" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="BA1" s="14" t="s">
+      <c r="BI1" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="BB1" s="14" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="BC1" s="14" t="s">
+      <c r="BK1" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="BD1" s="14" t="s">
+      <c r="BL1" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="BE1" s="14" t="s">
+      <c r="BM1" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="BF1" s="14" t="s">
+      <c r="BN1" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="BG1" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="BH1" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="BI1" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="BJ1" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK1" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL1" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="BN1" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="BO1" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP1" s="14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="BO1" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="BP1" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>92</v>
       </c>
@@ -1817,25 +1878,122 @@
       <c r="Q2" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="R2" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="S2" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="T2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="V2" s="14" t="s">
+      <c r="R2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="12"/>
+      <c r="AT2" s="12"/>
+      <c r="AU2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV2" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="W2" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="AB2" s="14" t="s">
+      <c r="AW2" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AX2" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ2" s="12"/>
+      <c r="BA2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="BB2" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BC2" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="BE2" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BG2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BH2" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI2" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="BJ2" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="BK2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="BN2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="BO2" s="14" t="s">
         <v>168</v>
       </c>
     </row>
@@ -1854,7 +2012,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1868,9 +2026,9 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="12" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>98</v>
       </c>

--- a/Input_TestData/ExcelSheet_TestData_UI.xlsx
+++ b/Input_TestData/ExcelSheet_TestData_UI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik.hussain\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE219647-C37A-4D57-B20B-DC17600C981B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8247A489-13D3-401D-A78C-BCB9C1AC1E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="188">
   <si>
     <t>attribute1</t>
   </si>
@@ -395,9 +395,6 @@
     <t>WebSite</t>
   </si>
   <si>
-    <t>LP_SendingLetterCheck_ddl</t>
-  </si>
-  <si>
     <t>Usefacility_Checkbox</t>
   </si>
   <si>
@@ -536,9 +533,6 @@
     <t>MA_Zip_Code</t>
   </si>
   <si>
-    <t>Click</t>
-  </si>
-  <si>
     <t>Credit Card</t>
   </si>
   <si>
@@ -587,19 +581,19 @@
     <t>Santosh Nagar</t>
   </si>
   <si>
-    <t>Next</t>
-  </si>
-  <si>
     <t>OnlyOwnerWork</t>
   </si>
   <si>
     <t>Naipet</t>
   </si>
   <si>
-    <t>Select Preference</t>
-  </si>
-  <si>
     <t>Kothapeta</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>LP_SendingLetterCheck</t>
   </si>
 </sst>
 </file>
@@ -699,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -721,9 +715,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1018,21 +1009,21 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
-    <col min="10" max="10" width="9.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="12.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="8"/>
+    <col min="10" max="10" width="9.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -1058,7 +1049,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>54</v>
@@ -1079,7 +1070,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +1090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -1114,7 +1105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1140,7 +1131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>65</v>
@@ -1161,7 +1152,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1199,7 +1190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>79</v>
@@ -1232,7 +1223,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
@@ -1252,7 +1243,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>71</v>
@@ -1282,19 +1273,19 @@
       <selection activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1320,7 +1311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1341,7 +1332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1361,7 +1352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -1376,7 +1367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1402,7 +1393,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1423,7 +1414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1461,7 +1452,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1507,15 +1498,15 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -1529,7 +1520,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>75</v>
@@ -1546,84 +1537,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91C4FB-E20E-468F-AACF-33BCD7A988CB}">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BF1" sqref="BF1"/>
+    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="26.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="20.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.42578125" style="11" customWidth="1"/>
-    <col min="48" max="48" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.5703125" style="11" customWidth="1"/>
-    <col min="51" max="51" width="7.5703125" style="11" customWidth="1"/>
-    <col min="52" max="52" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="44.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="18.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.08984375" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.453125" style="11" customWidth="1"/>
+    <col min="48" max="48" width="12.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.54296875" style="11" customWidth="1"/>
+    <col min="51" max="51" width="7.54296875" style="11" customWidth="1"/>
+    <col min="52" max="52" width="27.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="53" max="53" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="16" style="11" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="27.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="27.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="26.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="32.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="67" max="68" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="69" max="16384" width="8.7109375" style="11"/>
+    <col min="60" max="60" width="27.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="31.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="32.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:67" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>83</v>
       </c>
@@ -1676,7 +1667,7 @@
         <v>111</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>116</v>
@@ -1694,142 +1685,139 @@
         <v>120</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Y1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="Z1" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="Z1" s="12" t="s">
+      <c r="AA1" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="AA1" s="12" t="s">
+      <c r="AB1" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AB1" s="12" t="s">
+      <c r="AC1" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="AC1" s="12" t="s">
-        <v>167</v>
-      </c>
       <c r="AD1" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE1" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="AE1" s="17" t="s">
+      <c r="AF1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AO1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AR1" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="AR1" s="17" t="s">
+      <c r="AS1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AT1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AW1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AV1" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AY1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="AZ1" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="BA1" s="12" t="s">
+      <c r="BB1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BD1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BE1" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BF1" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BG1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="BG1" s="12" t="s">
+      <c r="BH1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="BH1" s="12" t="s">
+      <c r="BI1" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="BI1" s="12" t="s">
+      <c r="BJ1" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="BJ1" s="12" t="s">
+      <c r="BK1" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="BK1" s="12" t="s">
+      <c r="BL1" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="BL1" s="12" t="s">
+      <c r="BM1" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="BM1" s="12" t="s">
+      <c r="BN1" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="BN1" s="12" t="s">
-        <v>156</v>
-      </c>
       <c r="BO1" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="BP1" s="16" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:68" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:67" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>92</v>
       </c>
@@ -1879,43 +1867,43 @@
         <v>112</v>
       </c>
       <c r="R2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AB2" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="S2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>158</v>
-      </c>
       <c r="AC2" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="12"/>
@@ -1936,65 +1924,62 @@
       <c r="AS2" s="12"/>
       <c r="AT2" s="12"/>
       <c r="AU2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AW2" s="12" t="s">
         <v>169</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AW2" s="12" t="s">
-        <v>171</v>
       </c>
       <c r="AX2" s="12" t="s">
         <v>104</v>
       </c>
       <c r="AY2" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AZ2" s="12"/>
       <c r="BA2" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="BB2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="BC2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BD2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BE2" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="BC2" s="12" t="s">
+      <c r="BF2" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="BD2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BE2" s="12" t="s">
+      <c r="BG2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH2" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="BF2" s="12" t="s">
+      <c r="BI2" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="BG2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="BH2" s="12" t="s">
+      <c r="BJ2" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="BI2" s="12" t="s">
+      <c r="BK2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BL2" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="BJ2" s="12" t="s">
+      <c r="BM2" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="BK2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BL2" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="BM2" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="BN2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="BO2" s="14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2012,7 +1997,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2026,9 +2011,9 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="12" spans="16:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="16:16" x14ac:dyDescent="0.35">
       <c r="P12" t="s">
         <v>98</v>
       </c>

--- a/Input_TestData/ExcelSheet_TestData_UI.xlsx
+++ b/Input_TestData/ExcelSheet_TestData_UI.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik.hussain\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8247A489-13D3-401D-A78C-BCB9C1AC1E30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4FFFA3-6F12-42A4-AF63-C58A3B22B476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="178">
   <si>
     <t>attribute1</t>
   </si>
@@ -479,27 +479,6 @@
     <t>SPOverride1_ddl</t>
   </si>
   <si>
-    <t>SPOverride1_AttnTo_Textbox</t>
-  </si>
-  <si>
-    <t>SPOverride1_Address_Textbox</t>
-  </si>
-  <si>
-    <t>SPOverride1_AddressLine2_Textbox</t>
-  </si>
-  <si>
-    <t>SPOverride1_City_Textbox</t>
-  </si>
-  <si>
-    <t>SPOverride1_State_Textbox</t>
-  </si>
-  <si>
-    <t>SPOverride1_Zipcode_Textbox</t>
-  </si>
-  <si>
-    <t>SPOverride1__UseRequest_Checkbox</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -560,21 +539,6 @@
     <t>"55447"</t>
   </si>
   <si>
-    <t>Arif</t>
-  </si>
-  <si>
-    <t>Ghandi Nagar</t>
-  </si>
-  <si>
-    <t>Road No4</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>84043</t>
-  </si>
-  <si>
     <t>"51524"</t>
   </si>
   <si>
@@ -594,6 +558,12 @@
   </si>
   <si>
     <t>LP_SendingLetterCheck</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>SPUsedRequestGroup_Checkbox</t>
   </si>
 </sst>
 </file>
@@ -717,10 +687,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1537,10 +1507,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91C4FB-E20E-468F-AACF-33BCD7A988CB}">
-  <dimension ref="A1:BO2"/>
+  <dimension ref="A1:BI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF7" sqref="AF7"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AT3" sqref="AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1602,7 +1572,7 @@
     <col min="56" max="56" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
     <col min="57" max="57" width="12.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="19.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16" style="11" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16" style="11" customWidth="1"/>
     <col min="60" max="60" width="27.7265625" style="11" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="31.54296875" style="11" bestFit="1" customWidth="1"/>
@@ -1614,7 +1584,7 @@
     <col min="68" max="16384" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>83</v>
       </c>
@@ -1667,7 +1637,7 @@
         <v>111</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="S1" s="12" t="s">
         <v>116</v>
@@ -1685,27 +1655,27 @@
         <v>120</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="AA1" s="12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="AB1" s="12" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="AC1" s="12" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AD1" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="AE1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE1" s="15" t="s">
         <v>121</v>
       </c>
       <c r="AF1" s="12" t="s">
@@ -1744,7 +1714,7 @@
       <c r="AQ1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AR1" s="16" t="s">
+      <c r="AR1" s="15" t="s">
         <v>134</v>
       </c>
       <c r="AS1" s="12" t="s">
@@ -1769,7 +1739,7 @@
         <v>141</v>
       </c>
       <c r="AZ1" s="12" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="BA1" s="12" t="s">
         <v>142</v>
@@ -1792,32 +1762,14 @@
       <c r="BG1" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="BH1" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="BI1" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="BJ1" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BK1" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BL1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="BM1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="BN1" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="BO1" s="15" t="s">
+      <c r="BH1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="BI1" s="13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:67" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:61" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>92</v>
       </c>
@@ -1867,51 +1819,55 @@
         <v>112</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="W2" s="12" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="AE2" s="12"/>
       <c r="AF2" s="12"/>
       <c r="AG2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
+      <c r="AH2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="AJ2" s="12"/>
       <c r="AK2" s="12"/>
       <c r="AL2" s="12"/>
@@ -1922,64 +1878,48 @@
       <c r="AQ2" s="12"/>
       <c r="AR2" s="12"/>
       <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
+      <c r="AT2" s="12" t="s">
+        <v>149</v>
+      </c>
       <c r="AU2" s="12" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AV2" s="12" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="AW2" s="12" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="AX2" s="12" t="s">
-        <v>104</v>
+        <v>176</v>
       </c>
       <c r="AY2" s="12" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AZ2" s="12"/>
       <c r="BA2" s="12" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="BB2" s="12" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="BC2" s="12" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="BD2" s="12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="BE2" s="12" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="BF2" s="12" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="BH2" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="BI2" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="BJ2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="BK2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL2" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="BM2" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="BN2" s="12" t="s">
-        <v>156</v>
+        <v>163</v>
+      </c>
+      <c r="BH2" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/Input_TestData/ExcelSheet_TestData_UI.xlsx
+++ b/Input_TestData/ExcelSheet_TestData_UI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4FFFA3-6F12-42A4-AF63-C58A3B22B476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4481C1-1DCA-434A-9BCD-7FDE50DD574B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alphaSheet" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="193">
   <si>
     <t>attribute1</t>
   </si>
@@ -564,13 +564,58 @@
   </si>
   <si>
     <t>SPUsedRequestGroup_Checkbox</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>sendPrefereneceEmail</t>
+  </si>
+  <si>
+    <t>SP_Email</t>
+  </si>
+  <si>
+    <t>sendphiteam@testing.com</t>
+  </si>
+  <si>
+    <t>sendPreferenceEmail</t>
+  </si>
+  <si>
+    <t>sendPrefereneceFax</t>
+  </si>
+  <si>
+    <t>sendPreferenceFax</t>
+  </si>
+  <si>
+    <t>SP_Fax_Number</t>
+  </si>
+  <si>
+    <t>"998877665"</t>
+  </si>
+  <si>
+    <t>sendPrefereneceUpload</t>
+  </si>
+  <si>
+    <t>sendPreferenceUpload</t>
+  </si>
+  <si>
+    <t>Upload</t>
+  </si>
+  <si>
+    <t>SP_Upload_URL</t>
+  </si>
+  <si>
+    <t>sendPrefereneceMain_Checkbox</t>
+  </si>
+  <si>
+    <t>SP_UseMain_Checkbox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -587,6 +632,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -660,10 +713,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -693,8 +747,12 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,21 +1037,21 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.1796875" style="8"/>
-    <col min="10" max="10" width="9.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="8"/>
+    <col min="1" max="1" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="8"/>
+    <col min="10" max="10" width="9.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -1019,7 +1077,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>54</v>
@@ -1040,7 +1098,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1060,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -1075,7 +1133,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1101,7 +1159,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>65</v>
@@ -1122,7 +1180,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1160,7 +1218,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>79</v>
@@ -1193,7 +1251,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
@@ -1213,7 +1271,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>71</v>
@@ -1243,19 +1301,19 @@
       <selection activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1281,7 +1339,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1302,7 +1360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1322,7 +1380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -1337,7 +1395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1363,7 +1421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1384,7 +1442,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1422,7 +1480,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1468,15 +1526,15 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -1490,7 +1548,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>75</v>
@@ -1507,84 +1565,83 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91C4FB-E20E-468F-AACF-33BCD7A988CB}">
-  <dimension ref="A1:BI2"/>
+  <dimension ref="A1:BI10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AT3" sqref="AT3"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BA16" sqref="BA16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="3.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.81640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="44.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.08984375" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.453125" style="11" customWidth="1"/>
-    <col min="48" max="48" width="12.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.54296875" style="11" customWidth="1"/>
-    <col min="51" max="51" width="7.54296875" style="11" customWidth="1"/>
-    <col min="52" max="52" width="27.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="19" style="11" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="11" customWidth="1"/>
+    <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52" style="11" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="23.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="21.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="23.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="21.42578125" style="11" customWidth="1"/>
+    <col min="48" max="48" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.5703125" style="11" customWidth="1"/>
+    <col min="51" max="51" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="33.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="12.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="16" style="11" customWidth="1"/>
-    <col min="60" max="60" width="27.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="31.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="23.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="26.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="32.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="68" max="16384" width="8.7265625" style="11"/>
+    <col min="60" max="60" width="27.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="27.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="32.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="68" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:61" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>83</v>
       </c>
@@ -1769,7 +1826,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:61" s="14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:61" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>92</v>
       </c>
@@ -1896,7 +1953,9 @@
       <c r="AY2" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="AZ2" s="12"/>
+      <c r="AZ2" s="12" t="s">
+        <v>178</v>
+      </c>
       <c r="BA2" s="12" t="s">
         <v>173</v>
       </c>
@@ -1921,11 +1980,1195 @@
       <c r="BH2" s="14" t="s">
         <v>149</v>
       </c>
+    </row>
+    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG3" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH3" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ3" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK3" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN3" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR3" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV3" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW3" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX3" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY3" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ3" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="BA3" s="13" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q4" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="12"/>
+      <c r="AT4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ4" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="BA4" s="12"/>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y5" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE5" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG5" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH5" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK5" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL5" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN5" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP5" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ5" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR5" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV5" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW5" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ5" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="BA5" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="U6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="12"/>
+      <c r="AT6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU6" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV6" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW6" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX6" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY6" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AZ6" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="BA6" s="12"/>
+    </row>
+    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE7" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH7" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI7" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ7" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK7" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL7" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN7" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO7" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ7" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR7" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS7" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV7" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW7" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY7" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ7" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BA7" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="U8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="12"/>
+      <c r="AT8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU8" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV8" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW8" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX8" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY8" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="BA8" s="12"/>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE9" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AF9" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AG9" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH9" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AI9" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ9" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AK9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AM9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AN9" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AO9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AQ9" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="AR9" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS9" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AT9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AU9" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV9" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW9" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AX9" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="AY9" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ9" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA9" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="U10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AE10" s="12"/>
+      <c r="AF10" s="12"/>
+      <c r="AG10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AJ10" s="12"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="12"/>
+      <c r="AT10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU10" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AV10" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="AW10" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="AX10" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY10" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ10" s="17"/>
+      <c r="BA10" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{EB69ADFB-3F18-4E42-A89A-39D385ED211C}"/>
     <hyperlink ref="W2" r:id="rId2" xr:uid="{4B6AA15B-5658-44FA-86E3-E2F03BEA3927}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{3F0AD587-D7D7-4830-B390-5685B6650D54}"/>
+    <hyperlink ref="W4" r:id="rId4" xr:uid="{1CB29270-D53E-497B-B221-1C4752E4D5F1}"/>
+    <hyperlink ref="AZ4" r:id="rId5" xr:uid="{49C31D5B-3604-4777-9AC1-3A57F81F9B1B}"/>
+    <hyperlink ref="F6" r:id="rId6" xr:uid="{7E1F67B4-38D7-430E-820D-6C95C7241C35}"/>
+    <hyperlink ref="W6" r:id="rId7" xr:uid="{62E52780-99F0-4E22-82BD-BAA2EBDE85F5}"/>
+    <hyperlink ref="F8" r:id="rId8" xr:uid="{B7E2EEE4-8167-4A78-9AEF-F7042E840E59}"/>
+    <hyperlink ref="W8" r:id="rId9" xr:uid="{0491D8A9-8068-4094-96E5-2BDEFBFB27F6}"/>
+    <hyperlink ref="AZ8" r:id="rId10" xr:uid="{CA9E29FD-BE25-4853-BFF8-E65797357153}"/>
+    <hyperlink ref="F10" r:id="rId11" xr:uid="{208FC354-E239-4A69-871F-467B89CBF3C0}"/>
+    <hyperlink ref="W10" r:id="rId12" xr:uid="{A080488D-EC64-40A3-B397-859ADEDBC102}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1937,7 +3180,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1951,9 +3194,9 @@
       <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="12" spans="16:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
         <v>98</v>
       </c>

--- a/Input_TestData/ExcelSheet_TestData_UI.xlsx
+++ b/Input_TestData/ExcelSheet_TestData_UI.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4481C1-1DCA-434A-9BCD-7FDE50DD574B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="19360" windowHeight="10240" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="6135" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="alphaSheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,8 @@
     <sheet name="preLaunch" sheetId="5" r:id="rId5"/>
     <sheet name="DQA" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="216">
   <si>
     <t>attribute1</t>
   </si>
@@ -281,9 +276,6 @@
     <t>543543</t>
   </si>
   <si>
-    <t>happyPath</t>
-  </si>
-  <si>
     <t>contactType</t>
   </si>
   <si>
@@ -476,9 +468,6 @@
     <t>SP_ZipCode_Textbox</t>
   </si>
   <si>
-    <t>SPOverride1_ddl</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -563,58 +552,133 @@
     <t>Email</t>
   </si>
   <si>
-    <t>SPUsedRequestGroup_Checkbox</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
-    <t>sendPrefereneceEmail</t>
-  </si>
-  <si>
     <t>SP_Email</t>
   </si>
   <si>
-    <t>sendphiteam@testing.com</t>
-  </si>
-  <si>
-    <t>sendPreferenceEmail</t>
-  </si>
-  <si>
-    <t>sendPrefereneceFax</t>
-  </si>
-  <si>
-    <t>sendPreferenceFax</t>
-  </si>
-  <si>
     <t>SP_Fax_Number</t>
   </si>
   <si>
-    <t>"998877665"</t>
-  </si>
-  <si>
-    <t>sendPrefereneceUpload</t>
-  </si>
-  <si>
-    <t>sendPreferenceUpload</t>
-  </si>
-  <si>
     <t>Upload</t>
   </si>
   <si>
     <t>SP_Upload_URL</t>
   </si>
   <si>
-    <t>sendPrefereneceMain_Checkbox</t>
-  </si>
-  <si>
-    <t>SP_UseMain_Checkbox</t>
+    <t>EMR System</t>
+  </si>
+  <si>
+    <t>EMR System_TxtBox</t>
+  </si>
+  <si>
+    <t>AdvantaChart</t>
+  </si>
+  <si>
+    <t>SPOverride_DDL</t>
+  </si>
+  <si>
+    <t>SPOverride_UseRequest_Checkbox</t>
+  </si>
+  <si>
+    <t>SP_Override_AttnTo_Textbox</t>
+  </si>
+  <si>
+    <t>SP_Override_Address_Textbox</t>
+  </si>
+  <si>
+    <t>SP_Override_Address2_Textbox</t>
+  </si>
+  <si>
+    <t>SP_Override_City_Textbox</t>
+  </si>
+  <si>
+    <t>SP_Override__Zipcode_Textbox</t>
+  </si>
+  <si>
+    <t>SP_Override__State_DDL</t>
+  </si>
+  <si>
+    <t>AshokNagar</t>
+  </si>
+  <si>
+    <t>Colony</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>"458963"</t>
+  </si>
+  <si>
+    <t>CreateRG_AllSections</t>
+  </si>
+  <si>
+    <t>SP_Mail</t>
+  </si>
+  <si>
+    <t>SP_Fax</t>
+  </si>
+  <si>
+    <t>shaik123@gmail.com</t>
+  </si>
+  <si>
+    <t>SP_Upload</t>
+  </si>
+  <si>
+    <t>"3366998855"</t>
+  </si>
+  <si>
+    <t>SP_Email_TxtBox</t>
+  </si>
+  <si>
+    <t>SP_Mail_CheckBox</t>
+  </si>
+  <si>
+    <t>SP_Fax_CheckBox</t>
+  </si>
+  <si>
+    <t>SP_Email_CheckBox</t>
+  </si>
+  <si>
+    <t>CreateRG_MandatoryFields</t>
+  </si>
+  <si>
+    <t>US/Hawaii</t>
+  </si>
+  <si>
+    <t>Key Sites</t>
+  </si>
+  <si>
+    <t>Multiple_Contacts</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Compliance</t>
+  </si>
+  <si>
+    <t>TripleH</t>
+  </si>
+  <si>
+    <t>Automation</t>
+  </si>
+  <si>
+    <t>"9988556633"</t>
+  </si>
+  <si>
+    <t>"5"</t>
+  </si>
+  <si>
+    <t>"4455669988"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -706,7 +770,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -717,7 +783,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -744,10 +810,25 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1030,7 +1111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1294,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1400DB0E-8CEB-4275-AC6C-3249D17342F6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1519,7 +1600,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0703D59-0802-4774-9111-52139DE76A14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1564,11 +1645,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE91C4FB-E20E-468F-AACF-33BCD7A988CB}">
-  <dimension ref="A1:BI10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BA16" sqref="BA16"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BH10" sqref="BH10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1582,1600 +1663,3053 @@
     <col min="8" max="8" width="13.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="21.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="25.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="11" customWidth="1"/>
+    <col min="16" max="16" width="22.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.140625" style="11" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52" style="11" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="52" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="23.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22" style="11" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="21.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="21.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="23.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="21.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="22.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="27.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="15.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="31.28515625" style="11" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="21.42578125" style="11" customWidth="1"/>
-    <col min="48" max="48" width="12.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="20.5703125" style="11" customWidth="1"/>
-    <col min="51" max="51" width="8.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="33.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="19.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="22.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="14.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="12.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16" style="11" customWidth="1"/>
-    <col min="60" max="60" width="27.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="33.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="21" style="11" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="33.140625" style="11" customWidth="1"/>
     <col min="61" max="61" width="27.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="26.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="35.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="29.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="31.7109375" style="11" customWidth="1"/>
     <col min="66" max="66" width="32.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="68" max="16384" width="8.7109375" style="11"/>
+    <col min="67" max="67" width="28.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="70" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>91</v>
-      </c>
       <c r="L1" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M1" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>108</v>
-      </c>
       <c r="Q1" s="12" t="s">
-        <v>111</v>
+        <v>181</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>171</v>
+        <v>110</v>
       </c>
       <c r="S1" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF1" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="X1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE1" s="15" t="s">
+      <c r="AG1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AO1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ1" s="12" t="s">
+      <c r="AS1" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="AR1" s="15" t="s">
+      <c r="AT1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AS1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="AT1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU1" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="AV1" s="12" t="s">
         <v>137</v>
       </c>
       <c r="AW1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX1" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH1" s="12"/>
+      <c r="BI1" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="BJ1" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="BK1" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="BL1" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="BM1" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="BN1" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="BO1" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BP1" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="BQ1" s="17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX2" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA2" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB2" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC2" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="BA1" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="BC1" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="BD1" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="BE1" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="BF1" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="BG1" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="BH1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="BI1" s="13" t="s">
+      <c r="BE2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="BH2" s="12"/>
+      <c r="BI2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BJ2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK2" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="BL2" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BN2" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BO2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP2" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ2" s="12"/>
+    </row>
+    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="2" spans="1:61" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J2" s="12" t="s">
+      <c r="C3" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K2" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O2" s="12" t="s">
+      <c r="N3" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R3" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="S3" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="Q2" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="U2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="W2" s="12" t="s">
+      <c r="U3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y3" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Z3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA3" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Z2" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW2" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX2" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AZ2" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="BA2" s="12" t="s">
+      <c r="AB3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE3" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="BB2" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="BC2" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="BD2" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE2" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="BF2" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="BG2" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="BH2" s="14" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="3" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="S3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="T3" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="U3" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="W3" s="12" t="s">
+      <c r="AF3" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="X3" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y3" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE3" s="15" t="s">
+      <c r="AG3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AK3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP3" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AQ3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AO3" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP3" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AS3" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="AR3" s="15" t="s">
+      <c r="AT3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AU3" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="AT3" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU3" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="AV3" s="12" t="s">
         <v>137</v>
       </c>
       <c r="AW3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX3" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="BA3" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AZ3" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="BA3" s="13" t="s">
+      <c r="BC3" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD3" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE3" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="BF3" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="BG3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BH3" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>182</v>
       </c>
+      <c r="R4" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD4" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY4" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA4" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB4" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="BC4" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="BD4" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="BE4" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="BF4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="BG4" s="12" t="s">
+        <v>166</v>
+      </c>
     </row>
-    <row r="4" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J4" s="12" t="s">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M5" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O4" s="12" t="s">
+      <c r="N5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="P4" s="12" t="s">
+      <c r="S5" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T5" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="Q4" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="R4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="S4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="U4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="W4" s="12" t="s">
+      <c r="U5" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="V5" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="W5" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X5" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y5" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="X4" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y4" s="12" t="s">
+      <c r="Z5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA5" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Z4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE4" s="12"/>
-      <c r="AF4" s="12"/>
-      <c r="AG4" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
-      <c r="AN4" s="12"/>
-      <c r="AO4" s="12"/>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV4" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW4" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY4" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AZ4" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="BA4" s="12"/>
-    </row>
-    <row r="5" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L5" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M5" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="S5" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="T5" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="U5" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="V5" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="W5" s="12" t="s">
+      <c r="AB5" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF5" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="X5" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y5" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD5" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE5" s="15" t="s">
+      <c r="AG5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AF5" s="12" t="s">
+      <c r="AH5" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AI5" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AH5" s="12" t="s">
+      <c r="AJ5" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AI5" s="12" t="s">
+      <c r="AK5" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AJ5" s="12" t="s">
+      <c r="AL5" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AK5" s="12" t="s">
+      <c r="AM5" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AL5" s="12" t="s">
+      <c r="AN5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AM5" s="12" t="s">
+      <c r="AO5" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP5" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="AN5" s="12" t="s">
+      <c r="AQ5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR5" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AO5" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP5" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ5" s="12" t="s">
+      <c r="AS5" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="AR5" s="15" t="s">
+      <c r="AT5" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AS5" s="12" t="s">
+      <c r="AU5" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="AT5" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU5" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="AV5" s="12" t="s">
         <v>137</v>
       </c>
       <c r="AW5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AX5" s="12" t="s">
+      <c r="AZ5" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AY5" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ5" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="BA5" s="13" t="s">
-        <v>184</v>
+      <c r="BA5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB5" s="17" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="6" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="D6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="F6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="M6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q6" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R6" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="S6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC6" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD6" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE6" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="AI6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV6" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW6" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX6" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY6" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ6" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="BA6" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="BB6" s="12"/>
+    </row>
+    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O6" s="12" t="s">
+      <c r="N7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R7" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="P6" s="12" t="s">
+      <c r="S7" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="Q6" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="R6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="S6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="U6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="W6" s="12" t="s">
+      <c r="U7" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="V7" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="W7" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X7" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y7" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="X6" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y6" s="12" t="s">
+      <c r="Z7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA7" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Z6" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD6" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE6" s="12"/>
-      <c r="AF6" s="12"/>
-      <c r="AG6" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
-      <c r="AN6" s="12"/>
-      <c r="AO6" s="12"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="12"/>
-      <c r="AR6" s="12"/>
-      <c r="AS6" s="12"/>
-      <c r="AT6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU6" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV6" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW6" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX6" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY6" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AZ6" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="BA6" s="12"/>
-    </row>
-    <row r="7" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="P7" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q7" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="R7" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="S7" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="W7" s="12" t="s">
+      <c r="AB7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF7" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="X7" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y7" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE7" s="15" t="s">
+      <c r="AG7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AF7" s="12" t="s">
+      <c r="AH7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AI7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AJ7" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AK7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AL7" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AM7" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AN7" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AM7" s="12" t="s">
+      <c r="AO7" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP7" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="AN7" s="12" t="s">
+      <c r="AQ7" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR7" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AO7" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP7" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ7" s="12" t="s">
+      <c r="AS7" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="AR7" s="15" t="s">
+      <c r="AT7" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AS7" s="12" t="s">
+      <c r="AU7" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="AT7" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU7" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="AV7" s="12" t="s">
         <v>137</v>
       </c>
       <c r="AW7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY7" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AX7" s="12" t="s">
+      <c r="AZ7" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AY7" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ7" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="BA7" s="13" t="s">
-        <v>188</v>
+      <c r="BA7" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB7" s="17" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="8" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="E8" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="F8" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="G8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L8" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="M8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="S8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC8" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD8" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE8" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH8" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="J8" s="12" t="s">
+      <c r="AI8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV8" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW8" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX8" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY8" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ8" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BA8" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="BB8" s="12"/>
+    </row>
+    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O8" s="12" t="s">
+      <c r="N9" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R9" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="P8" s="12" t="s">
+      <c r="S9" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T9" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="Q8" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="R8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="S8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="U8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="W8" s="12" t="s">
+      <c r="U9" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="V9" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="W9" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X9" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y9" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="X8" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y8" s="12" t="s">
+      <c r="Z9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA9" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Z8" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA8" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB8" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD8" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AE8" s="12"/>
-      <c r="AF8" s="12"/>
-      <c r="AG8" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
-      <c r="AN8" s="12"/>
-      <c r="AO8" s="12"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="12"/>
-      <c r="AR8" s="12"/>
-      <c r="AS8" s="12"/>
-      <c r="AT8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU8" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV8" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW8" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX8" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY8" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ8" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BA8" s="12"/>
-    </row>
-    <row r="9" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="P9" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q9" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="R9" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="S9" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="T9" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="U9" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="V9" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="W9" s="12" t="s">
+      <c r="AB9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF9" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="X9" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y9" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="Z9" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AA9" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AB9" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AC9" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AD9" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE9" s="15" t="s">
+      <c r="AG9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AF9" s="12" t="s">
+      <c r="AH9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AG9" s="12" t="s">
+      <c r="AI9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AH9" s="12" t="s">
+      <c r="AJ9" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AI9" s="12" t="s">
+      <c r="AK9" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AJ9" s="12" t="s">
+      <c r="AL9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AK9" s="12" t="s">
+      <c r="AM9" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AL9" s="12" t="s">
+      <c r="AN9" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AM9" s="12" t="s">
+      <c r="AO9" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP9" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="AN9" s="12" t="s">
+      <c r="AQ9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR9" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AO9" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP9" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ9" s="12" t="s">
+      <c r="AS9" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="AR9" s="15" t="s">
+      <c r="AT9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AS9" s="12" t="s">
+      <c r="AU9" s="12" t="s">
         <v>135</v>
-      </c>
-      <c r="AT9" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU9" s="12" t="s">
-        <v>138</v>
       </c>
       <c r="AV9" s="12" t="s">
         <v>137</v>
       </c>
       <c r="AW9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX9" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY9" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AX9" s="12" t="s">
+      <c r="AZ9" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="AY9" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="AZ9" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="BA9" s="13" t="s">
-        <v>191</v>
+      <c r="BA9" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB9" s="17" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="10" spans="1:61" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12" t="s">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
+      <c r="B10" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="E10" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="G10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="M10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q10" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="S10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC10" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD10" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="AI10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX10" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY10" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ10" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA10" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB10" s="12"/>
+    </row>
+    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="V11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="W11" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X11" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF11" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG11" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH11" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI11" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ11" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK11" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL11" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM11" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN11" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO11" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR11" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS11" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT11" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ11" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA11" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="BB11" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K12" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="S12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD12" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE12" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH12" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV12" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW12" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX12" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY12" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ12" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BA12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB12" s="18"/>
+    </row>
+    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="12" t="s">
+      <c r="N13" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="V13" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="W13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF13" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG13" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH13" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI13" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ13" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK13" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL13" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM13" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO13" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP13" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR13" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS13" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT13" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU13" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV13" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX13" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY13" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ13" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA13" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BB13" s="21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A14" s="18"/>
+      <c r="B14" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O14" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="P14" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" s="5" t="s">
+      <c r="Q14" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="S14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD14" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE14" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH14" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW14" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX14" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY14" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ14" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="BA14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB14" s="18"/>
+    </row>
+    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="V15" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="W15" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="X15" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="Y15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AF15" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="AG15" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AH15" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="AI15" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ15" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK15" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="AL15" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM15" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN15" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO15" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AP15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AQ15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AR15" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS15" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT15" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AU15" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AV15" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="AW15" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AX15" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY15" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AZ15" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="BA15" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="BB15" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+      <c r="A16" s="18"/>
+      <c r="B16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="P10" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q10" s="12" t="s">
+      <c r="P16" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q16" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AD16" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AE16" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AH16" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AI16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AM16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AO16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AQ16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AR16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="AV16" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AW16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="AX16" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="AY16" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AZ16" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="BA16" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BB16" s="18"/>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="R10" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="S10" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="U10" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="AA10" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB10" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC10" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="AD10" s="12" t="s">
+      <c r="M17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="O17" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q17" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="BA17" s="22"/>
+    </row>
+    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A18" s="18"/>
+      <c r="B18" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="O18" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q18" s="18"/>
+    </row>
+    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="O19" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="P19" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="S19" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="T19" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="U19" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="V19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="W19" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="X19" s="21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+      <c r="A20" s="18"/>
+      <c r="B20" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="O20" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="P20" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q20" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="S20" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="T20" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="U20" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="AE10" s="12"/>
-      <c r="AF10" s="12"/>
-      <c r="AG10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH10" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI10" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
-      <c r="AN10" s="12"/>
-      <c r="AO10" s="12"/>
-      <c r="AP10" s="12"/>
-      <c r="AQ10" s="12"/>
-      <c r="AR10" s="12"/>
-      <c r="AS10" s="12"/>
-      <c r="AT10" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU10" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="AV10" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="AW10" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="AX10" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY10" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="AZ10" s="17"/>
-      <c r="BA10" s="12"/>
+      <c r="V20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="W20" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{EB69ADFB-3F18-4E42-A89A-39D385ED211C}"/>
-    <hyperlink ref="W2" r:id="rId2" xr:uid="{4B6AA15B-5658-44FA-86E3-E2F03BEA3927}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{3F0AD587-D7D7-4830-B390-5685B6650D54}"/>
-    <hyperlink ref="W4" r:id="rId4" xr:uid="{1CB29270-D53E-497B-B221-1C4752E4D5F1}"/>
-    <hyperlink ref="AZ4" r:id="rId5" xr:uid="{49C31D5B-3604-4777-9AC1-3A57F81F9B1B}"/>
-    <hyperlink ref="F6" r:id="rId6" xr:uid="{7E1F67B4-38D7-430E-820D-6C95C7241C35}"/>
-    <hyperlink ref="W6" r:id="rId7" xr:uid="{62E52780-99F0-4E22-82BD-BAA2EBDE85F5}"/>
-    <hyperlink ref="F8" r:id="rId8" xr:uid="{B7E2EEE4-8167-4A78-9AEF-F7042E840E59}"/>
-    <hyperlink ref="W8" r:id="rId9" xr:uid="{0491D8A9-8068-4094-96E5-2BDEFBFB27F6}"/>
-    <hyperlink ref="AZ8" r:id="rId10" xr:uid="{CA9E29FD-BE25-4853-BFF8-E65797357153}"/>
-    <hyperlink ref="F10" r:id="rId11" xr:uid="{208FC354-E239-4A69-871F-467B89CBF3C0}"/>
-    <hyperlink ref="W10" r:id="rId12" xr:uid="{A080488D-EC64-40A3-B397-859ADEDBC102}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="X2" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="X4" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="X6" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="X8" r:id="rId8"/>
+    <hyperlink ref="BA8" r:id="rId9"/>
+    <hyperlink ref="F10" r:id="rId10"/>
+    <hyperlink ref="X10" r:id="rId11"/>
+    <hyperlink ref="BA10" r:id="rId12"/>
+    <hyperlink ref="F12" r:id="rId13"/>
+    <hyperlink ref="X12" r:id="rId14"/>
+    <hyperlink ref="F14" r:id="rId15"/>
+    <hyperlink ref="X14" r:id="rId16"/>
+    <hyperlink ref="F16" r:id="rId17"/>
+    <hyperlink ref="X16" r:id="rId18"/>
+    <hyperlink ref="F18" r:id="rId19"/>
+    <hyperlink ref="F20" r:id="rId20"/>
+    <hyperlink ref="Q20" r:id="rId21"/>
+    <hyperlink ref="P20" r:id="rId22" display="shaik123@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C717FB09-8AC9-4ACF-9A0D-A8BA9DFD45B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3187,7 +4721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB2257F-F658-4FDD-978C-30EFA3D235AE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3198,7 +4732,7 @@
   <sheetData>
     <row r="12" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Input_TestData/ExcelSheet_TestData_UI.xlsx
+++ b/Input_TestData/ExcelSheet_TestData_UI.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="215">
   <si>
     <t>attribute1</t>
   </si>
@@ -367,9 +367,6 @@
   </si>
   <si>
     <t>true</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>ContactWillLetter</t>
@@ -1648,8 +1645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BQ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BH10" sqref="BH10"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AY18" sqref="AY18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1721,7 +1718,7 @@
   <sheetData>
     <row r="1" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>83</v>
@@ -1769,161 +1766,161 @@
         <v>107</v>
       </c>
       <c r="Q1" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R1" s="12" t="s">
         <v>110</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T1" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF1" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="Y1" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AG1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AP1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ1" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AS1" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AT1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW1" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AW1" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AY1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="BA1" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BD1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BE1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BF1" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BG1" s="12" t="s">
         <v>145</v>
-      </c>
-      <c r="BG1" s="12" t="s">
-        <v>146</v>
       </c>
       <c r="BH1" s="12"/>
       <c r="BI1" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="BJ1" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BK1" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="BK1" s="12" t="s">
+      <c r="BL1" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="BL1" s="12" t="s">
+      <c r="BM1" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="BM1" s="12" t="s">
+      <c r="BN1" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="BN1" s="12" t="s">
+      <c r="BO1" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="BP1" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="BO1" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="BP1" s="12" t="s">
-        <v>189</v>
-      </c>
       <c r="BQ1" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.25">
@@ -1971,167 +1968,167 @@
         <v>109</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R2" s="12" t="s">
         <v>111</v>
       </c>
       <c r="S2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC2" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y2" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AD2" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE2" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH2" s="12" t="s">
         <v>101</v>
       </c>
       <c r="AI2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AV2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW2" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AW2" s="12" t="s">
+      <c r="AX2" s="12" t="s">
         <v>159</v>
-      </c>
-      <c r="AX2" s="12" t="s">
-        <v>160</v>
       </c>
       <c r="AY2" s="12" t="s">
         <v>103</v>
       </c>
       <c r="AZ2" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BA2" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="BB2" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BC2" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="BD2" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BE2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="BE2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BF2" s="12" t="s">
+      <c r="BG2" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="BG2" s="12" t="s">
-        <v>166</v>
       </c>
       <c r="BH2" s="12"/>
       <c r="BI2" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BJ2" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BK2" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="BL2" s="12" t="s">
+      <c r="BM2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="BN2" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="BO2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="BM2" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="BN2" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BO2" s="12" t="s">
+      <c r="BP2" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="BP2" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="BQ2" s="12"/>
     </row>
     <row r="3" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>83</v>
@@ -2179,136 +2176,136 @@
         <v>107</v>
       </c>
       <c r="Q3" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R3" s="12" t="s">
         <v>110</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF3" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="Y3" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AG3" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AK3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP3" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AQ3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR3" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AP3" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ3" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AS3" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AS3" s="15" t="s">
+      <c r="AT3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AU3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AV3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW3" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AX3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AW3" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AY3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="BA3" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BB3" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="BA3" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BC3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BD3" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BF3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="BF3" s="12" t="s">
+      <c r="BG3" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="BG3" s="12" t="s">
-        <v>146</v>
-      </c>
       <c r="BH3" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:69" x14ac:dyDescent="0.25">
@@ -2356,141 +2353,141 @@
         <v>109</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R4" s="12" t="s">
         <v>111</v>
       </c>
       <c r="S4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC4" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y4" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AD4" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE4" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH4" s="12" t="s">
         <v>101</v>
       </c>
       <c r="AI4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU4" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AV4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW4" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AW4" s="12" t="s">
+      <c r="AX4" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AX4" s="12" t="s">
+      <c r="AY4" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ4" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AY4" s="12" t="s">
+      <c r="BA4" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="AZ4" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="BA4" s="12" t="s">
-        <v>175</v>
-      </c>
       <c r="BB4" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BC4" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="BD4" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BE4" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="BF4" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="BE4" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BF4" s="12" t="s">
+      <c r="BG4" s="12" t="s">
         <v>165</v>
-      </c>
-      <c r="BG4" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>83</v>
@@ -2538,118 +2535,118 @@
         <v>107</v>
       </c>
       <c r="Q5" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R5" s="12" t="s">
         <v>110</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="U5" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="V5" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="W5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="X5" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="Y5" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF5" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="Y5" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD5" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AG5" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AH5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AH5" s="12" t="s">
+      <c r="AI5" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AI5" s="12" t="s">
+      <c r="AJ5" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AJ5" s="12" t="s">
+      <c r="AK5" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AK5" s="12" t="s">
+      <c r="AL5" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AL5" s="12" t="s">
+      <c r="AM5" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AM5" s="12" t="s">
+      <c r="AN5" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AN5" s="12" t="s">
+      <c r="AO5" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AO5" s="12" t="s">
+      <c r="AQ5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR5" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AP5" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ5" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR5" s="12" t="s">
+      <c r="AS5" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AS5" s="15" t="s">
+      <c r="AT5" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AT5" s="12" t="s">
+      <c r="AU5" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AU5" s="12" t="s">
+      <c r="AV5" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW5" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AV5" s="12" t="s">
+      <c r="AX5" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AW5" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX5" s="12" t="s">
+      <c r="AY5" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AY5" s="12" t="s">
+      <c r="AZ5" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AZ5" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="BA5" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BB5" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:69" x14ac:dyDescent="0.25">
@@ -2697,124 +2694,124 @@
         <v>109</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R6" s="12" t="s">
         <v>111</v>
       </c>
       <c r="S6" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC6" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AD6" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE6" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH6" s="12" t="s">
         <v>101</v>
       </c>
       <c r="AI6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU6" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AV6" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW6" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AW6" s="12" t="s">
+      <c r="AX6" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AX6" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="AY6" s="12" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="AZ6" s="12" t="s">
         <v>103</v>
       </c>
       <c r="BA6" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BB6" s="12"/>
     </row>
     <row r="7" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>83</v>
@@ -2862,118 +2859,118 @@
         <v>107</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>110</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T7" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="U7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="W7" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="Y7" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF7" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="Y7" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF7" s="15" t="s">
+      <c r="AG7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AH7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AI7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AJ7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AK7" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AL7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AM7" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AM7" s="12" t="s">
+      <c r="AN7" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AN7" s="12" t="s">
+      <c r="AO7" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP7" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AO7" s="12" t="s">
+      <c r="AQ7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR7" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AP7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ7" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR7" s="12" t="s">
+      <c r="AS7" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AS7" s="15" t="s">
+      <c r="AT7" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AT7" s="12" t="s">
+      <c r="AU7" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AU7" s="12" t="s">
+      <c r="AV7" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW7" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AV7" s="12" t="s">
+      <c r="AX7" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AW7" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX7" s="12" t="s">
+      <c r="AY7" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AY7" s="12" t="s">
+      <c r="AZ7" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AZ7" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="BA7" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BB7" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:69" x14ac:dyDescent="0.25">
@@ -3021,124 +3018,124 @@
         <v>109</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R8" s="12" t="s">
         <v>111</v>
       </c>
       <c r="S8" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC8" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="T8" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z8" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA8" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB8" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AD8" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE8" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH8" s="12" t="s">
         <v>101</v>
       </c>
       <c r="AI8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU8" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AV8" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW8" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AW8" s="12" t="s">
+      <c r="AX8" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AX8" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="AY8" s="12" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="AZ8" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BA8" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BB8" s="12"/>
     </row>
     <row r="9" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>83</v>
@@ -3186,118 +3183,118 @@
         <v>107</v>
       </c>
       <c r="Q9" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R9" s="12" t="s">
         <v>110</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T9" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="U9" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="V9" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="W9" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="X9" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="Y9" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="Y9" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z9" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA9" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB9" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC9" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD9" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF9" s="15" t="s">
+      <c r="AG9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AG9" s="12" t="s">
+      <c r="AH9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AH9" s="12" t="s">
+      <c r="AI9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AI9" s="12" t="s">
+      <c r="AJ9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AJ9" s="12" t="s">
+      <c r="AK9" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AK9" s="12" t="s">
+      <c r="AL9" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AL9" s="12" t="s">
+      <c r="AM9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AM9" s="12" t="s">
+      <c r="AN9" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AN9" s="12" t="s">
+      <c r="AO9" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP9" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AO9" s="12" t="s">
+      <c r="AQ9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR9" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AP9" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ9" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR9" s="12" t="s">
+      <c r="AS9" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AS9" s="15" t="s">
+      <c r="AT9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AT9" s="12" t="s">
+      <c r="AU9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AU9" s="12" t="s">
+      <c r="AV9" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW9" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AV9" s="12" t="s">
+      <c r="AX9" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AW9" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX9" s="12" t="s">
+      <c r="AY9" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AY9" s="12" t="s">
+      <c r="AZ9" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AZ9" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="BA9" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BB9" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:69" x14ac:dyDescent="0.25">
@@ -3345,124 +3342,124 @@
         <v>109</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R10" s="12" t="s">
         <v>111</v>
       </c>
       <c r="S10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC10" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA10" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB10" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC10" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AD10" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE10" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH10" s="12" t="s">
         <v>101</v>
       </c>
       <c r="AI10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU10" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AV10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW10" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AW10" s="12" t="s">
+      <c r="AX10" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AX10" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="AY10" s="12" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="AZ10" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BA10" s="16" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BB10" s="12"/>
     </row>
     <row r="11" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>83</v>
@@ -3510,118 +3507,118 @@
         <v>107</v>
       </c>
       <c r="Q11" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R11" s="12" t="s">
         <v>110</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T11" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="U11" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="V11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="V11" s="12" t="s">
+      <c r="W11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="W11" s="12" t="s">
+      <c r="X11" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="X11" s="12" t="s">
+      <c r="Y11" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF11" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="Y11" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z11" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD11" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE11" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF11" s="15" t="s">
+      <c r="AG11" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AG11" s="12" t="s">
+      <c r="AH11" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AH11" s="12" t="s">
+      <c r="AI11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AI11" s="12" t="s">
+      <c r="AJ11" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AJ11" s="12" t="s">
+      <c r="AK11" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AK11" s="12" t="s">
+      <c r="AL11" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AL11" s="12" t="s">
+      <c r="AM11" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AM11" s="12" t="s">
+      <c r="AN11" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AN11" s="12" t="s">
+      <c r="AO11" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP11" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AO11" s="12" t="s">
+      <c r="AQ11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR11" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AP11" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ11" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR11" s="12" t="s">
+      <c r="AS11" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AS11" s="15" t="s">
+      <c r="AT11" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AT11" s="12" t="s">
+      <c r="AU11" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AU11" s="12" t="s">
+      <c r="AV11" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW11" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AV11" s="12" t="s">
+      <c r="AX11" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AW11" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX11" s="12" t="s">
+      <c r="AY11" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AY11" s="12" t="s">
+      <c r="AZ11" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AZ11" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="BA11" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BB11" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:69" x14ac:dyDescent="0.25">
@@ -3669,124 +3666,124 @@
         <v>109</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R12" s="12" t="s">
         <v>111</v>
       </c>
       <c r="S12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC12" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="T12" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AD12" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE12" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH12" s="12" t="s">
         <v>101</v>
       </c>
       <c r="AI12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AV12" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW12" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AW12" s="12" t="s">
+      <c r="AX12" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AX12" s="12" t="s">
+      <c r="AY12" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AZ12" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AY12" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AZ12" s="12" t="s">
-        <v>161</v>
-      </c>
       <c r="BA12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BB12" s="18"/>
     </row>
     <row r="13" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>83</v>
@@ -3834,118 +3831,118 @@
         <v>107</v>
       </c>
       <c r="Q13" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R13" s="12" t="s">
         <v>110</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="V13" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="V13" s="12" t="s">
+      <c r="W13" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="W13" s="12" t="s">
+      <c r="X13" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="X13" s="12" t="s">
+      <c r="Y13" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF13" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="Y13" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA13" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB13" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC13" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD13" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE13" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF13" s="15" t="s">
+      <c r="AG13" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AG13" s="12" t="s">
+      <c r="AH13" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AH13" s="12" t="s">
+      <c r="AI13" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AI13" s="12" t="s">
+      <c r="AJ13" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AJ13" s="12" t="s">
+      <c r="AK13" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AK13" s="12" t="s">
+      <c r="AL13" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AL13" s="12" t="s">
+      <c r="AM13" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AM13" s="12" t="s">
+      <c r="AN13" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AN13" s="12" t="s">
+      <c r="AO13" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP13" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AO13" s="12" t="s">
+      <c r="AQ13" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR13" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AP13" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ13" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR13" s="12" t="s">
+      <c r="AS13" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AS13" s="15" t="s">
+      <c r="AT13" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AT13" s="12" t="s">
+      <c r="AU13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AU13" s="12" t="s">
+      <c r="AV13" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW13" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AV13" s="12" t="s">
+      <c r="AX13" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AW13" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX13" s="12" t="s">
+      <c r="AY13" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AY13" s="12" t="s">
+      <c r="AZ13" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AZ13" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="BA13" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BB13" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:69" x14ac:dyDescent="0.25">
@@ -3993,124 +3990,124 @@
         <v>109</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R14" s="12" t="s">
         <v>111</v>
       </c>
       <c r="S14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC14" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="T14" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA14" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB14" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AD14" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE14" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH14" s="12" t="s">
         <v>101</v>
       </c>
       <c r="AI14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AV14" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW14" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AW14" s="12" t="s">
+      <c r="AX14" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AX14" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="AY14" s="12" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="AZ14" s="12" t="s">
         <v>103</v>
       </c>
       <c r="BA14" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BB14" s="18"/>
     </row>
     <row r="15" spans="1:69" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>83</v>
@@ -4158,118 +4155,118 @@
         <v>107</v>
       </c>
       <c r="Q15" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R15" s="12" t="s">
         <v>110</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T15" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="V15" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="V15" s="12" t="s">
+      <c r="W15" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="W15" s="12" t="s">
+      <c r="X15" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="X15" s="12" t="s">
+      <c r="Y15" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="AF15" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="Y15" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AA15" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AB15" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AD15" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AE15" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="AF15" s="15" t="s">
+      <c r="AG15" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AG15" s="12" t="s">
+      <c r="AH15" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AH15" s="12" t="s">
+      <c r="AI15" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AI15" s="12" t="s">
+      <c r="AJ15" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AJ15" s="12" t="s">
+      <c r="AK15" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AK15" s="12" t="s">
+      <c r="AL15" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AL15" s="12" t="s">
+      <c r="AM15" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AM15" s="12" t="s">
+      <c r="AN15" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AN15" s="12" t="s">
+      <c r="AO15" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="AP15" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="AO15" s="12" t="s">
+      <c r="AQ15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR15" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AP15" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AQ15" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR15" s="12" t="s">
+      <c r="AS15" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AS15" s="15" t="s">
+      <c r="AT15" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AT15" s="12" t="s">
+      <c r="AU15" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AU15" s="12" t="s">
+      <c r="AV15" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="AW15" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="AV15" s="12" t="s">
+      <c r="AX15" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AW15" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AX15" s="12" t="s">
+      <c r="AY15" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AY15" s="12" t="s">
+      <c r="AZ15" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="AZ15" s="12" t="s">
-        <v>140</v>
-      </c>
       <c r="BA15" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="BB15" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:69" x14ac:dyDescent="0.25">
@@ -4317,124 +4314,124 @@
         <v>109</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="R16" s="12" t="s">
         <v>111</v>
       </c>
       <c r="S16" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC16" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="T16" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z16" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA16" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="AB16" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC16" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="AD16" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AE16" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AF16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AG16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AH16" s="12" t="s">
         <v>101</v>
       </c>
       <c r="AI16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AJ16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AK16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AM16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AN16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AO16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AP16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AQ16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AT16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU16" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AV16" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AW16" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AW16" s="12" t="s">
+      <c r="AX16" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AX16" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="AY16" s="12" t="s">
-        <v>174</v>
+        <v>103</v>
       </c>
       <c r="AZ16" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BA16" s="16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BB16" s="18"/>
     </row>
     <row r="17" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>83</v>
@@ -4476,13 +4473,13 @@
         <v>107</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BA17" s="22"/>
     </row>
@@ -4522,22 +4519,22 @@
         <v>96</v>
       </c>
       <c r="M18" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="N18" s="12" t="s">
         <v>206</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>207</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>103</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q18" s="18"/>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>83</v>
@@ -4606,7 +4603,7 @@
         <v>112</v>
       </c>
       <c r="X19" s="21" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.25">
@@ -4645,31 +4642,31 @@
         <v>96</v>
       </c>
       <c r="M20" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="N20" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="P20" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="P20" s="16" t="s">
+      <c r="Q20" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="R20" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="Q20" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="R20" s="12" t="s">
+      <c r="S20" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="T20" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="T20" s="12" t="s">
-        <v>215</v>
-      </c>
       <c r="U20" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V20" s="12" t="s">
         <v>113</v>

--- a/Input_TestData/ExcelSheet_TestData_UI.xlsx
+++ b/Input_TestData/ExcelSheet_TestData_UI.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4993860-56F5-481C-8EA4-C7C44C96A593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19770" windowHeight="6135" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alphaSheet" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,6 @@
     <sheet name="DQA" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="236">
   <si>
     <t>attribute1</t>
   </si>
@@ -606,9 +611,6 @@
     <t>AZ</t>
   </si>
   <si>
-    <t>"458963"</t>
-  </si>
-  <si>
     <t>CreateRG_AllSections</t>
   </si>
   <si>
@@ -670,12 +672,78 @@
   </si>
   <si>
     <t>"4455669988"</t>
+  </si>
+  <si>
+    <t>NextBtn</t>
+  </si>
+  <si>
+    <t>ProjextTypes</t>
+  </si>
+  <si>
+    <t>PI - CCV</t>
+  </si>
+  <si>
+    <t>ChartTypes</t>
+  </si>
+  <si>
+    <t>Medical</t>
+  </si>
+  <si>
+    <t>AuditsTypes</t>
+  </si>
+  <si>
+    <t>DRG</t>
+  </si>
+  <si>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>DateofServiceAvailabilityFrom</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
+  </si>
+  <si>
+    <t>DateofServiceAvailabilityTo</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Clients</t>
+  </si>
+  <si>
+    <t>Atena</t>
+  </si>
+  <si>
+    <t>PatientNames</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>PatientNamesFrom</t>
+  </si>
+  <si>
+    <t>PatientNamesTo</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>"55478"</t>
+  </si>
+  <si>
+    <t>"45963"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -780,7 +848,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -823,9 +891,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1108,7 +1173,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1372,7 +1437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1597,7 +1662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1642,11 +1707,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:CO20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AY18" sqref="AY18"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,12 +1778,20 @@
     <col min="67" max="67" width="28.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="70" max="16384" width="8.7109375" style="11"/>
+    <col min="70" max="70" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="31.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="8.7109375" style="11"/>
+    <col min="77" max="77" width="15.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="20.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="81" max="16384" width="8.7109375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>83</v>
@@ -1919,11 +1992,57 @@
       <c r="BP1" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="BQ1" s="17" t="s">
-        <v>194</v>
-      </c>
+      <c r="BQ1" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="BR1" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="BS1" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="BT1" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="BU1" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="BV1" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="BW1" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="BX1" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="BY1" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="BZ1" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="CA1" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="CB1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="CC1" s="12"/>
+      <c r="CD1" s="12"/>
+      <c r="CE1" s="12"/>
+      <c r="CF1" s="12"/>
+      <c r="CG1" s="12"/>
+      <c r="CH1" s="12"/>
+      <c r="CI1" s="12"/>
+      <c r="CJ1" s="12"/>
+      <c r="CK1" s="12"/>
+      <c r="CL1" s="12"/>
+      <c r="CM1" s="12"/>
+      <c r="CN1" s="12"/>
+      <c r="CO1" s="12"/>
     </row>
-    <row r="2" spans="1:69" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12"/>
       <c r="B2" s="12" t="s">
         <v>91</v>
@@ -2061,7 +2180,7 @@
         <v>146</v>
       </c>
       <c r="AU2" s="12" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="AV2" s="12" t="s">
         <v>157</v>
@@ -2097,7 +2216,7 @@
         <v>164</v>
       </c>
       <c r="BG2" s="12" t="s">
-        <v>165</v>
+        <v>234</v>
       </c>
       <c r="BH2" s="12"/>
       <c r="BI2" s="12" t="s">
@@ -2122,13 +2241,59 @@
         <v>192</v>
       </c>
       <c r="BP2" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="BQ2" s="12"/>
+        <v>235</v>
+      </c>
+      <c r="BQ2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BR2" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="BS2" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="BT2" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="BU2" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="BV2" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="BW2" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX2" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="BY2" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="BZ2" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="CA2" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="CB2" s="12"/>
+      <c r="CC2" s="12"/>
+      <c r="CD2" s="12"/>
+      <c r="CE2" s="12"/>
+      <c r="CF2" s="12"/>
+      <c r="CG2" s="12"/>
+      <c r="CH2" s="12"/>
+      <c r="CI2" s="12"/>
+      <c r="CJ2" s="12"/>
+      <c r="CK2" s="12"/>
+      <c r="CL2" s="12"/>
+      <c r="CM2" s="12"/>
+      <c r="CN2" s="12"/>
+      <c r="CO2" s="12"/>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>83</v>
@@ -2305,10 +2470,10 @@
         <v>145</v>
       </c>
       <c r="BH3" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>91</v>
@@ -2485,9 +2650,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>83</v>
@@ -2646,10 +2811,10 @@
         <v>176</v>
       </c>
       <c r="BB5" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
         <v>91</v>
@@ -2805,11 +2970,11 @@
         <v>103</v>
       </c>
       <c r="BA6" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BB6" s="12"/>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>175</v>
       </c>
@@ -2967,13 +3132,13 @@
         <v>139</v>
       </c>
       <c r="BA7" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BB7" s="17" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
         <v>91</v>
@@ -3129,13 +3294,13 @@
         <v>173</v>
       </c>
       <c r="BA8" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="BB8" s="12"/>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>83</v>
@@ -3294,10 +3459,10 @@
         <v>178</v>
       </c>
       <c r="BB9" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="19" t="s">
         <v>91</v>
@@ -3457,9 +3622,9 @@
       </c>
       <c r="BB10" s="12"/>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>83</v>
@@ -3618,10 +3783,10 @@
         <v>161</v>
       </c>
       <c r="BB11" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A12" s="18"/>
       <c r="B12" s="12" t="s">
         <v>91</v>
@@ -3781,9 +3946,9 @@
       </c>
       <c r="BB12" s="18"/>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>83</v>
@@ -3942,10 +4107,10 @@
         <v>176</v>
       </c>
       <c r="BB13" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A14" s="18"/>
       <c r="B14" s="12" t="s">
         <v>91</v>
@@ -4105,9 +4270,9 @@
       </c>
       <c r="BB14" s="18"/>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>83</v>
@@ -4263,13 +4428,13 @@
         <v>139</v>
       </c>
       <c r="BA15" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BB15" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="12" t="s">
         <v>91</v>
@@ -4429,9 +4594,9 @@
       </c>
       <c r="BB16" s="18"/>
     </row>
-    <row r="17" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>83</v>
@@ -4479,11 +4644,10 @@
         <v>176</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>204</v>
-      </c>
-      <c r="BA17" s="22"/>
+        <v>203</v>
+      </c>
     </row>
-    <row r="18" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="18"/>
       <c r="B18" s="12" t="s">
         <v>91</v>
@@ -4519,22 +4683,22 @@
         <v>96</v>
       </c>
       <c r="M18" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="N18" s="12" t="s">
         <v>205</v>
-      </c>
-      <c r="N18" s="12" t="s">
-        <v>206</v>
       </c>
       <c r="O18" s="12" t="s">
         <v>103</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q18" s="18"/>
     </row>
-    <row r="19" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>83</v>
@@ -4603,10 +4767,10 @@
         <v>112</v>
       </c>
       <c r="X19" s="21" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="20" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="18"/>
       <c r="B20" s="12" t="s">
         <v>91</v>
@@ -4642,28 +4806,28 @@
         <v>96</v>
       </c>
       <c r="M20" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="N20" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="P20" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="P20" s="16" t="s">
+      <c r="Q20" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="R20" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="Q20" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="R20" s="12" t="s">
+      <c r="S20" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="T20" s="12" t="s">
         <v>213</v>
-      </c>
-      <c r="T20" s="12" t="s">
-        <v>214</v>
       </c>
       <c r="U20" s="12" t="s">
         <v>173</v>
@@ -4677,28 +4841,28 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="X2" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="X4" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="X6" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
-    <hyperlink ref="X8" r:id="rId8"/>
-    <hyperlink ref="BA8" r:id="rId9"/>
-    <hyperlink ref="F10" r:id="rId10"/>
-    <hyperlink ref="X10" r:id="rId11"/>
-    <hyperlink ref="BA10" r:id="rId12"/>
-    <hyperlink ref="F12" r:id="rId13"/>
-    <hyperlink ref="X12" r:id="rId14"/>
-    <hyperlink ref="F14" r:id="rId15"/>
-    <hyperlink ref="X14" r:id="rId16"/>
-    <hyperlink ref="F16" r:id="rId17"/>
-    <hyperlink ref="X16" r:id="rId18"/>
-    <hyperlink ref="F18" r:id="rId19"/>
-    <hyperlink ref="F20" r:id="rId20"/>
-    <hyperlink ref="Q20" r:id="rId21"/>
-    <hyperlink ref="P20" r:id="rId22" display="shaik123@gmail.com"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="X2" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="X4" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="X6" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="F8" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="X8" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="BA8" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="F10" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="X10" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="BA10" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
+    <hyperlink ref="F12" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
+    <hyperlink ref="X12" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
+    <hyperlink ref="F14" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="X14" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
+    <hyperlink ref="F16" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
+    <hyperlink ref="X16" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="F18" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="F20" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="Q20" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="P20" r:id="rId22" display="shaik123@gmail.com" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId23"/>
@@ -4706,7 +4870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4718,7 +4882,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Input_TestData/ExcelSheet_TestData_UI.xlsx
+++ b/Input_TestData/ExcelSheet_TestData_UI.xlsx
@@ -5,20 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hi\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shaik.hussain\git\HDAP2_PEGAUI_Automation\Input_TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4993860-56F5-481C-8EA4-C7C44C96A593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07F9533-6E8E-4B93-8933-903223606215}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="alphaSheet" sheetId="1" r:id="rId1"/>
-    <sheet name="betaSheet" sheetId="2" r:id="rId2"/>
-    <sheet name="realTime" sheetId="3" r:id="rId3"/>
-    <sheet name="createRG" sheetId="4" r:id="rId4"/>
-    <sheet name="preLaunch" sheetId="5" r:id="rId5"/>
-    <sheet name="DQA" sheetId="6" r:id="rId6"/>
+    <sheet name="API" sheetId="8" r:id="rId1"/>
+    <sheet name="DQA" sheetId="7" r:id="rId2"/>
+    <sheet name="alphaSheet" sheetId="1" r:id="rId3"/>
+    <sheet name="betaSheet" sheetId="2" r:id="rId4"/>
+    <sheet name="realTime" sheetId="3" r:id="rId5"/>
+    <sheet name="createRG" sheetId="4" r:id="rId6"/>
+    <sheet name="preLaunch" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="293">
   <si>
     <t>attribute1</t>
   </si>
@@ -323,9 +324,6 @@
     <t>US/Alaska</t>
   </si>
   <si>
-    <t>8,</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
@@ -738,6 +736,180 @@
   </si>
   <si>
     <t>"45963"</t>
+  </si>
+  <si>
+    <t>validateDQA</t>
+  </si>
+  <si>
+    <t>Contact Day/Time Preferences</t>
+  </si>
+  <si>
+    <t>Validate</t>
+  </si>
+  <si>
+    <t>Retrieval Methods</t>
+  </si>
+  <si>
+    <t>Workflow Settings</t>
+  </si>
+  <si>
+    <t>Main address</t>
+  </si>
+  <si>
+    <t>Letter Preference</t>
+  </si>
+  <si>
+    <t>Payment Preference</t>
+  </si>
+  <si>
+    <t>Return Preference</t>
+  </si>
+  <si>
+    <t>Send Preference</t>
+  </si>
+  <si>
+    <t>Contacts</t>
+  </si>
+  <si>
+    <t>API1</t>
+  </si>
+  <si>
+    <t>Auth_Token</t>
+  </si>
+  <si>
+    <t>InvocationCount</t>
+  </si>
+  <si>
+    <t>chaseRequest_url</t>
+  </si>
+  <si>
+    <t>chaseRequest_resource</t>
+  </si>
+  <si>
+    <t>intendedUse</t>
+  </si>
+  <si>
+    <t>AccountID</t>
+  </si>
+  <si>
+    <t>SubAccountID</t>
+  </si>
+  <si>
+    <t>DateOfServiceStart</t>
+  </si>
+  <si>
+    <t>DateOfServiceEnd</t>
+  </si>
+  <si>
+    <t>ProspectiveClaimFlag</t>
+  </si>
+  <si>
+    <t>M1_LastName</t>
+  </si>
+  <si>
+    <t>M1_FirstName</t>
+  </si>
+  <si>
+    <t>M2_LastName</t>
+  </si>
+  <si>
+    <t>M2_FirstName</t>
+  </si>
+  <si>
+    <t>P1_Name</t>
+  </si>
+  <si>
+    <t>P1_LastName</t>
+  </si>
+  <si>
+    <t>P1_FirstName</t>
+  </si>
+  <si>
+    <t>P1_Address1</t>
+  </si>
+  <si>
+    <t>P1_Address2</t>
+  </si>
+  <si>
+    <t>P1_City</t>
+  </si>
+  <si>
+    <t>"50"</t>
+  </si>
+  <si>
+    <t>https://ml4u039sdd.execute-api.us-east-1.amazonaws.com</t>
+  </si>
+  <si>
+    <t>/qa/HDAP/Public/v1/ChaseRequests</t>
+  </si>
+  <si>
+    <t>HEDIS|CCV|CV|MRA|CRA|CPR|RADV|RCA</t>
+  </si>
+  <si>
+    <t>P610</t>
+  </si>
+  <si>
+    <t>Z888</t>
+  </si>
+  <si>
+    <t>API2</t>
+  </si>
+  <si>
+    <t>HEDIS|CCV|RCA</t>
+  </si>
+  <si>
+    <t>J667</t>
+  </si>
+  <si>
+    <t>API3</t>
+  </si>
+  <si>
+    <t>"100"</t>
+  </si>
+  <si>
+    <t>CV|MRA|CRA|CPR|RADV|RCA</t>
+  </si>
+  <si>
+    <t>API4</t>
+  </si>
+  <si>
+    <t>HEDIS|CCV|CV|MRA</t>
+  </si>
+  <si>
+    <t>M710</t>
+  </si>
+  <si>
+    <t>API5</t>
+  </si>
+  <si>
+    <t>"150"</t>
+  </si>
+  <si>
+    <t>CRA|CPR|RADV|RCA</t>
+  </si>
+  <si>
+    <t>API6</t>
+  </si>
+  <si>
+    <t>HEDIS|CCV|CV|MRA|CRA|CPR</t>
+  </si>
+  <si>
+    <t>J889</t>
+  </si>
+  <si>
+    <t>API7</t>
+  </si>
+  <si>
+    <t>"200"</t>
+  </si>
+  <si>
+    <t>RADV|RCA</t>
+  </si>
+  <si>
+    <t>API8</t>
+  </si>
+  <si>
+    <t>K123</t>
   </si>
 </sst>
 </file>
@@ -794,7 +966,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -843,12 +1015,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -893,6 +1076,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1173,6 +1360,952 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DA9641-ECF2-4ABF-9DCF-D6B9086D978E}">
+  <dimension ref="A1:V16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="51.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="V1" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2"/>
+      <c r="C2" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+    </row>
+    <row r="3" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="22" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="O3" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="P3" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q3" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="S3" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="T3" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="U3" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="V3" s="22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+    </row>
+    <row r="5" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+    </row>
+    <row r="7" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="O7" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="U7" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="V7" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
+      <c r="C8" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+    </row>
+    <row r="9" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="O9" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q9" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="S9" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="T9" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="U9" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="V9" s="22" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+    </row>
+    <row r="11" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>285</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q11" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R11" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="V11" s="22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="2"/>
+      <c r="C12" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+    </row>
+    <row r="13" spans="1:22" s="14" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q13" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="V13" s="22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
+      <c r="C14" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+    </row>
+    <row r="15" spans="1:22" s="14" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="O15" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q15" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="T15" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="U15" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="V15" s="22" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="2"/>
+      <c r="C16" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>268</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536B9840-EF8B-4DD9-AFE7-5183A0BBD167}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
@@ -1180,21 +2313,21 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="8"/>
-    <col min="10" max="10" width="9.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="12.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.1796875" style="8"/>
+    <col min="10" max="10" width="9.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>12</v>
       </c>
@@ -1220,7 +2353,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5" t="s">
         <v>54</v>
@@ -1241,7 +2374,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
@@ -1261,7 +2394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5" t="s">
         <v>18</v>
@@ -1276,7 +2409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>22</v>
       </c>
@@ -1302,7 +2435,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5" t="s">
         <v>65</v>
@@ -1323,7 +2456,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
@@ -1361,7 +2494,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5" t="s">
         <v>79</v>
@@ -1394,7 +2527,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
@@ -1414,7 +2547,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>71</v>
@@ -1436,7 +2569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -1444,19 +2577,19 @@
       <selection activeCell="A3" sqref="A3:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -1482,7 +2615,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -1503,7 +2636,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1523,7 +2656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
@@ -1538,7 +2671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>44</v>
       </c>
@@ -1564,7 +2697,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2" t="s">
         <v>6</v>
@@ -1585,7 +2718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -1623,7 +2756,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
       <c r="B8" s="2" t="s">
         <v>21</v>
@@ -1661,7 +2794,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -1669,15 +2802,15 @@
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>72</v>
       </c>
@@ -1691,7 +2824,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="4" t="s">
         <v>75</v>
@@ -1706,92 +2839,92 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CO20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView topLeftCell="AR1" zoomScale="80" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AV24" sqref="AV24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" style="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.1796875" style="11" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.42578125" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" style="8" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="28.453125" style="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="17" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="22" max="23" width="52" style="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="19.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="19.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="23.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="19.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="23.7265625" style="11" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="22" style="11" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="24.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="26.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="26.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="24.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="26.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="24.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="24.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="27.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="31.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="21.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="25.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="26.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="25.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="13.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="20.5703125" style="11" customWidth="1"/>
-    <col min="51" max="51" width="23.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="27.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="53" max="54" width="33.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="55" max="56" width="26.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="15.28515625" style="11" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="24.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="26.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="22.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="26.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="24.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="22.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="26.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="24.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="24.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="31.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="21.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="25.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="26.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="25.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="13.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="20.54296875" style="11" customWidth="1"/>
+    <col min="51" max="51" width="23.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="27.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="53" max="54" width="33.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="26.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15.26953125" style="11" bestFit="1" customWidth="1"/>
     <col min="58" max="59" width="21" style="11" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="33.140625" style="11" customWidth="1"/>
-    <col min="61" max="61" width="27.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="35.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="29.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="30.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="31.7109375" style="11" customWidth="1"/>
-    <col min="66" max="66" width="32.7109375" style="11" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="28.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="31.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="11.7109375" style="11" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="33.1796875" style="11" customWidth="1"/>
+    <col min="61" max="61" width="27.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="35.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="29.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="30.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="31.7265625" style="11" customWidth="1"/>
+    <col min="66" max="66" width="32.7265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="28.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="31.54296875" style="11" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="22.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="11.7265625" style="11" bestFit="1" customWidth="1"/>
     <col min="72" max="72" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="73" max="74" width="31.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="75" max="76" width="8.7109375" style="11"/>
-    <col min="77" max="77" width="15.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="20.140625" style="11" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="22.42578125" style="11" bestFit="1" customWidth="1"/>
-    <col min="81" max="16384" width="8.7109375" style="11"/>
+    <col min="73" max="74" width="31.26953125" style="11" bestFit="1" customWidth="1"/>
+    <col min="75" max="76" width="8.7265625" style="11"/>
+    <col min="77" max="77" width="15.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="20.1796875" style="11" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="22.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="81" max="16384" width="8.7265625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>83</v>
@@ -1800,10 +2933,10 @@
         <v>84</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>86</v>
@@ -1824,209 +2957,209 @@
         <v>90</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M1" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="O1" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="P1" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="Q1" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R1" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S1" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T1" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="U1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U1" s="12" t="s">
+      <c r="V1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="12" t="s">
+      <c r="W1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="W1" s="12" t="s">
+      <c r="X1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="X1" s="12" t="s">
+      <c r="Y1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC1" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD1" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE1" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF1" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Y1" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB1" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC1" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD1" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE1" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF1" s="15" t="s">
+      <c r="AG1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AO1" s="12" t="s">
+      <c r="AQ1" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AP1" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ1" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR1" s="12" t="s">
+      <c r="AS1" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AS1" s="15" t="s">
+      <c r="AT1" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AT1" s="12" t="s">
+      <c r="AU1" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AU1" s="12" t="s">
+      <c r="AV1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW1" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AV1" s="12" t="s">
+      <c r="AX1" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AW1" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX1" s="12" t="s">
+      <c r="AY1" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AZ1" s="12" t="s">
+      <c r="BA1" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="BB1" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="BA1" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="BB1" s="12" t="s">
+      <c r="BC1" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BD1" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="BD1" s="12" t="s">
+      <c r="BE1" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="BE1" s="12" t="s">
+      <c r="BF1" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="BF1" s="12" t="s">
+      <c r="BG1" s="12" t="s">
         <v>144</v>
-      </c>
-      <c r="BG1" s="12" t="s">
-        <v>145</v>
       </c>
       <c r="BH1" s="12"/>
       <c r="BI1" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="BJ1" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="BJ1" s="15" t="s">
+      <c r="BK1" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="BK1" s="12" t="s">
+      <c r="BL1" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="BL1" s="12" t="s">
+      <c r="BM1" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="BM1" s="12" t="s">
+      <c r="BN1" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="BN1" s="12" t="s">
+      <c r="BO1" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="BP1" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="BO1" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="BP1" s="12" t="s">
-        <v>188</v>
-      </c>
       <c r="BQ1" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="BR1" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="BR1" s="12" t="s">
-        <v>215</v>
-      </c>
       <c r="BS1" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BT1" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BU1" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="BV1" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="BW1" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="BW1" s="12" t="s">
+      <c r="BX1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="BX1" s="12" t="s">
-        <v>226</v>
-      </c>
       <c r="BY1" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BZ1" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="CA1" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="CA1" s="12" t="s">
-        <v>231</v>
-      </c>
       <c r="CB1" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="CC1" s="12"/>
       <c r="CD1" s="12"/>
@@ -2042,7 +3175,7 @@
       <c r="CN1" s="12"/>
       <c r="CO1" s="12"/>
     </row>
-    <row r="2" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:93" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="12"/>
       <c r="B2" s="12" t="s">
         <v>91</v>
@@ -2060,221 +3193,221 @@
         <v>95</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J2" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="K2" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L2" s="12" t="s">
         <v>96</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N2" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y2" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC2" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="T2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="V2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="W2" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="X2" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE2" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AV2" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW2" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX2" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY2" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ2" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB2" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="Z2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE2" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH2" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT2" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU2" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="AV2" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW2" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AX2" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY2" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ2" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BA2" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="BB2" s="12" t="s">
-        <v>170</v>
-      </c>
       <c r="BC2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="BD2" s="12" t="s">
+      <c r="BE2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF2" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="BE2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF2" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="BG2" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BH2" s="12"/>
       <c r="BI2" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BJ2" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BK2" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="BL2" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="BL2" s="12" t="s">
+      <c r="BM2" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="BN2" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BO2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="BM2" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="BN2" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BO2" s="12" t="s">
-        <v>192</v>
-      </c>
       <c r="BP2" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BQ2" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BR2" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BS2" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BT2" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="BU2" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="BU2" s="12" t="s">
-        <v>221</v>
-      </c>
       <c r="BV2" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BW2" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BX2" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BY2" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BZ2" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="CA2" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="CA2" s="12" t="s">
-        <v>233</v>
       </c>
       <c r="CB2" s="12"/>
       <c r="CC2" s="12"/>
@@ -2291,9 +3424,9 @@
       <c r="CN2" s="12"/>
       <c r="CO2" s="12"/>
     </row>
-    <row r="3" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>83</v>
@@ -2302,10 +3435,10 @@
         <v>84</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>86</v>
@@ -2326,154 +3459,154 @@
         <v>90</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M3" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="O3" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="P3" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="Q3" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R3" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S3" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T3" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="U3" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="V3" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="W3" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="X3" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="Y3" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z3" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB3" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC3" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD3" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE3" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF3" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Y3" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z3" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA3" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC3" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD3" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF3" s="15" t="s">
+      <c r="AG3" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AG3" s="12" t="s">
+      <c r="AH3" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AH3" s="12" t="s">
+      <c r="AI3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AI3" s="12" t="s">
+      <c r="AJ3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AJ3" s="12" t="s">
+      <c r="AK3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AK3" s="12" t="s">
+      <c r="AL3" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AL3" s="12" t="s">
+      <c r="AM3" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AM3" s="12" t="s">
+      <c r="AN3" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AN3" s="12" t="s">
+      <c r="AO3" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP3" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AO3" s="12" t="s">
+      <c r="AQ3" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR3" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AP3" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ3" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AS3" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AS3" s="15" t="s">
+      <c r="AT3" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AU3" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AV3" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW3" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AV3" s="12" t="s">
+      <c r="AX3" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AW3" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX3" s="12" t="s">
+      <c r="AY3" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AY3" s="12" t="s">
+      <c r="AZ3" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AZ3" s="12" t="s">
+      <c r="BA3" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="BB3" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="BA3" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="BB3" s="12" t="s">
+      <c r="BC3" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="BC3" s="12" t="s">
+      <c r="BD3" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="BD3" s="12" t="s">
+      <c r="BE3" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="BE3" s="12" t="s">
+      <c r="BF3" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="BF3" s="12" t="s">
+      <c r="BG3" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="BG3" s="12" t="s">
-        <v>145</v>
-      </c>
       <c r="BH3" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A4" s="12"/>
       <c r="B4" s="12" t="s">
         <v>91</v>
@@ -2491,168 +3624,168 @@
         <v>95</v>
       </c>
       <c r="G4" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="I4" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="J4" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J4" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="K4" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="W4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y4" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA4" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC4" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="T4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="V4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="W4" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="X4" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y4" s="12" t="s">
+      <c r="AD4" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE4" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH4" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU4" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW4" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ4" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="BA4" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="BB4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="Z4" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA4" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB4" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC4" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE4" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH4" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AV4" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW4" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AX4" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY4" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ4" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="BA4" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="BB4" s="12" t="s">
-        <v>170</v>
-      </c>
       <c r="BC4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="BD4" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="BD4" s="12" t="s">
+      <c r="BE4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BF4" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="BE4" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="BF4" s="12" t="s">
+      <c r="BG4" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="BG4" s="12" t="s">
-        <v>165</v>
-      </c>
     </row>
-    <row r="5" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>83</v>
@@ -2661,10 +3794,10 @@
         <v>84</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>86</v>
@@ -2685,136 +3818,136 @@
         <v>90</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="O5" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O5" s="12" t="s">
+      <c r="P5" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="Q5" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R5" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T5" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="U5" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U5" s="12" t="s">
+      <c r="V5" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="V5" s="12" t="s">
+      <c r="W5" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="W5" s="12" t="s">
+      <c r="X5" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="X5" s="12" t="s">
+      <c r="Y5" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA5" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC5" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD5" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE5" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF5" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Y5" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z5" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA5" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB5" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC5" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD5" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE5" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF5" s="15" t="s">
+      <c r="AG5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AG5" s="12" t="s">
+      <c r="AH5" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AH5" s="12" t="s">
+      <c r="AI5" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AI5" s="12" t="s">
+      <c r="AJ5" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AJ5" s="12" t="s">
+      <c r="AK5" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AK5" s="12" t="s">
+      <c r="AL5" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AL5" s="12" t="s">
+      <c r="AM5" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AM5" s="12" t="s">
+      <c r="AN5" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AN5" s="12" t="s">
+      <c r="AO5" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP5" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AO5" s="12" t="s">
+      <c r="AQ5" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR5" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AP5" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ5" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR5" s="12" t="s">
+      <c r="AS5" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AS5" s="15" t="s">
+      <c r="AT5" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AT5" s="12" t="s">
+      <c r="AU5" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AU5" s="12" t="s">
+      <c r="AV5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW5" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AV5" s="12" t="s">
+      <c r="AX5" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AW5" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX5" s="12" t="s">
+      <c r="AY5" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AY5" s="12" t="s">
+      <c r="AZ5" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AZ5" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="BA5" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BB5" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A6" s="12"/>
       <c r="B6" s="12" t="s">
         <v>91</v>
@@ -2832,151 +3965,151 @@
         <v>95</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="I6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="K6" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L6" s="12" t="s">
         <v>96</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q6" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S6" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="T6" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V6" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="W6" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="X6" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y6" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA6" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC6" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="T6" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="V6" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="W6" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="X6" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y6" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z6" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA6" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB6" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC6" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="AD6" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE6" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH6" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AK6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AR6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AU6" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AV6" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW6" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="AW6" s="12" t="s">
+      <c r="AX6" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AX6" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="AY6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AZ6" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BA6" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BB6" s="12"/>
     </row>
-    <row r="7" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>83</v>
@@ -2985,10 +4118,10 @@
         <v>84</v>
       </c>
       <c r="D7" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>86</v>
@@ -3009,136 +4142,136 @@
         <v>90</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M7" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N7" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="O7" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O7" s="12" t="s">
+      <c r="P7" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="P7" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="Q7" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R7" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S7" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T7" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="U7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="V7" s="12" t="s">
+      <c r="W7" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="W7" s="12" t="s">
+      <c r="X7" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="X7" s="12" t="s">
+      <c r="Y7" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB7" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC7" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF7" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Y7" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC7" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD7" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF7" s="15" t="s">
+      <c r="AG7" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AG7" s="12" t="s">
+      <c r="AH7" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AH7" s="12" t="s">
+      <c r="AI7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AI7" s="12" t="s">
+      <c r="AJ7" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AJ7" s="12" t="s">
+      <c r="AK7" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AK7" s="12" t="s">
+      <c r="AL7" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AL7" s="12" t="s">
+      <c r="AM7" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AM7" s="12" t="s">
+      <c r="AN7" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AN7" s="12" t="s">
+      <c r="AO7" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP7" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AO7" s="12" t="s">
+      <c r="AQ7" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR7" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AP7" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ7" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR7" s="12" t="s">
+      <c r="AS7" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AS7" s="15" t="s">
+      <c r="AT7" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AT7" s="12" t="s">
+      <c r="AU7" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AU7" s="12" t="s">
+      <c r="AV7" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW7" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AV7" s="12" t="s">
+      <c r="AX7" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AW7" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX7" s="12" t="s">
+      <c r="AY7" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AY7" s="12" t="s">
+      <c r="AZ7" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AZ7" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="BA7" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BB7" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
         <v>91</v>
@@ -3156,151 +4289,151 @@
         <v>95</v>
       </c>
       <c r="G8" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="I8" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="K8" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L8" s="12" t="s">
         <v>96</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N8" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P8" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q8" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R8" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="T8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V8" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="W8" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="X8" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y8" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA8" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB8" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC8" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="T8" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="V8" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="W8" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="X8" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y8" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z8" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA8" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB8" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC8" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="AD8" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE8" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH8" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AK8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AR8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AU8" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AV8" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW8" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="AW8" s="12" t="s">
+      <c r="AX8" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AX8" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="AY8" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AZ8" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BA8" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BB8" s="12"/>
     </row>
-    <row r="9" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>83</v>
@@ -3309,10 +4442,10 @@
         <v>84</v>
       </c>
       <c r="D9" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E9" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>86</v>
@@ -3333,136 +4466,136 @@
         <v>90</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="O9" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O9" s="12" t="s">
+      <c r="P9" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="Q9" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R9" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S9" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T9" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="U9" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U9" s="12" t="s">
+      <c r="V9" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="V9" s="12" t="s">
+      <c r="W9" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="W9" s="12" t="s">
+      <c r="X9" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="X9" s="12" t="s">
+      <c r="Y9" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z9" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB9" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE9" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF9" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Y9" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z9" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA9" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB9" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC9" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD9" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE9" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF9" s="15" t="s">
+      <c r="AG9" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AG9" s="12" t="s">
+      <c r="AH9" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AH9" s="12" t="s">
+      <c r="AI9" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AI9" s="12" t="s">
+      <c r="AJ9" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AJ9" s="12" t="s">
+      <c r="AK9" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AK9" s="12" t="s">
+      <c r="AL9" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AL9" s="12" t="s">
+      <c r="AM9" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AM9" s="12" t="s">
+      <c r="AN9" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AN9" s="12" t="s">
+      <c r="AO9" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP9" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AO9" s="12" t="s">
+      <c r="AQ9" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR9" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AP9" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ9" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR9" s="12" t="s">
+      <c r="AS9" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AS9" s="15" t="s">
+      <c r="AT9" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AT9" s="12" t="s">
+      <c r="AU9" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AU9" s="12" t="s">
+      <c r="AV9" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW9" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AV9" s="12" t="s">
+      <c r="AX9" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AW9" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX9" s="12" t="s">
+      <c r="AY9" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AY9" s="12" t="s">
+      <c r="AZ9" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AZ9" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="BA9" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BB9" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
-    <row r="10" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="19" t="s">
         <v>91</v>
@@ -3480,151 +4613,151 @@
         <v>95</v>
       </c>
       <c r="G10" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="I10" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="K10" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L10" s="12" t="s">
         <v>96</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N10" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P10" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q10" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R10" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="T10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="W10" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="X10" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y10" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB10" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC10" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="T10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="V10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="W10" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="X10" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y10" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z10" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA10" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB10" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC10" s="12" t="s">
+      <c r="AD10" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="AE10" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH10" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AI10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AN10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AO10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AP10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AQ10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AR10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AU10" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="AV10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW10" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AX10" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="AY10" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ10" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="BA10" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="AD10" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="AE10" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="AF10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH10" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AI10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AJ10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AK10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AL10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AM10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AN10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AO10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AP10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AQ10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AR10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU10" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="AV10" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="AW10" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="AX10" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="AY10" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ10" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="BA10" s="16" t="s">
-        <v>148</v>
       </c>
       <c r="BB10" s="12"/>
     </row>
-    <row r="11" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>83</v>
@@ -3633,10 +4766,10 @@
         <v>84</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>86</v>
@@ -3657,136 +4790,136 @@
         <v>90</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M11" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="O11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O11" s="12" t="s">
+      <c r="P11" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="Q11" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R11" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S11" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T11" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="U11" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U11" s="12" t="s">
+      <c r="V11" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="V11" s="12" t="s">
+      <c r="W11" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="W11" s="12" t="s">
+      <c r="X11" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="X11" s="12" t="s">
+      <c r="Y11" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z11" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA11" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB11" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC11" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD11" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE11" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF11" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Y11" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z11" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA11" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB11" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC11" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD11" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE11" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF11" s="15" t="s">
+      <c r="AG11" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AG11" s="12" t="s">
+      <c r="AH11" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AH11" s="12" t="s">
+      <c r="AI11" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AI11" s="12" t="s">
+      <c r="AJ11" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AJ11" s="12" t="s">
+      <c r="AK11" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AK11" s="12" t="s">
+      <c r="AL11" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AL11" s="12" t="s">
+      <c r="AM11" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AM11" s="12" t="s">
+      <c r="AN11" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AN11" s="12" t="s">
+      <c r="AO11" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP11" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AO11" s="12" t="s">
+      <c r="AQ11" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR11" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AP11" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ11" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR11" s="12" t="s">
+      <c r="AS11" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AS11" s="15" t="s">
+      <c r="AT11" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AT11" s="12" t="s">
+      <c r="AU11" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AU11" s="12" t="s">
+      <c r="AV11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW11" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AV11" s="12" t="s">
+      <c r="AX11" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AW11" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX11" s="12" t="s">
+      <c r="AY11" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AY11" s="12" t="s">
+      <c r="AZ11" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AZ11" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="BA11" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BB11" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A12" s="18"/>
       <c r="B12" s="12" t="s">
         <v>91</v>
@@ -3804,151 +4937,151 @@
         <v>95</v>
       </c>
       <c r="G12" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="I12" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="K12" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L12" s="12" t="s">
         <v>96</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N12" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P12" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q12" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R12" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="T12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V12" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="W12" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="X12" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y12" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB12" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC12" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="T12" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="V12" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="W12" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y12" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z12" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA12" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB12" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC12" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="AD12" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE12" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH12" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AK12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AR12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AU12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AV12" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW12" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="AW12" s="12" t="s">
+      <c r="AX12" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AX12" s="12" t="s">
+      <c r="AY12" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AZ12" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="AY12" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AZ12" s="12" t="s">
-        <v>160</v>
-      </c>
       <c r="BA12" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BB12" s="18"/>
     </row>
-    <row r="13" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A13" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>83</v>
@@ -3957,10 +5090,10 @@
         <v>84</v>
       </c>
       <c r="D13" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>86</v>
@@ -3981,136 +5114,136 @@
         <v>90</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M13" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N13" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="O13" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O13" s="12" t="s">
+      <c r="P13" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="P13" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="Q13" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R13" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S13" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T13" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="U13" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U13" s="12" t="s">
+      <c r="V13" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="V13" s="12" t="s">
+      <c r="W13" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="W13" s="12" t="s">
+      <c r="X13" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="X13" s="12" t="s">
+      <c r="Y13" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA13" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB13" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC13" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD13" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE13" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF13" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Y13" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z13" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA13" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB13" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC13" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD13" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE13" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF13" s="15" t="s">
+      <c r="AG13" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AG13" s="12" t="s">
+      <c r="AH13" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AH13" s="12" t="s">
+      <c r="AI13" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AI13" s="12" t="s">
+      <c r="AJ13" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AJ13" s="12" t="s">
+      <c r="AK13" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AK13" s="12" t="s">
+      <c r="AL13" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AL13" s="12" t="s">
+      <c r="AM13" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AM13" s="12" t="s">
+      <c r="AN13" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AN13" s="12" t="s">
+      <c r="AO13" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP13" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AO13" s="12" t="s">
+      <c r="AQ13" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR13" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AP13" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ13" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR13" s="12" t="s">
+      <c r="AS13" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AS13" s="15" t="s">
+      <c r="AT13" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AT13" s="12" t="s">
+      <c r="AU13" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AU13" s="12" t="s">
+      <c r="AV13" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW13" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AV13" s="12" t="s">
+      <c r="AX13" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AW13" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX13" s="12" t="s">
+      <c r="AY13" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AY13" s="12" t="s">
+      <c r="AZ13" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AZ13" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="BA13" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BB13" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
-    <row r="14" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A14" s="18"/>
       <c r="B14" s="12" t="s">
         <v>91</v>
@@ -4128,151 +5261,151 @@
         <v>95</v>
       </c>
       <c r="G14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="I14" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="K14" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L14" s="12" t="s">
         <v>96</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N14" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P14" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R14" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="T14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="U14" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V14" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="W14" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="X14" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y14" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z14" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA14" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB14" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC14" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="T14" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="V14" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="W14" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="X14" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y14" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z14" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA14" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB14" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC14" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="AD14" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE14" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH14" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AK14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AR14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AU14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AV14" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW14" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="AW14" s="12" t="s">
+      <c r="AX14" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AX14" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="AY14" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AZ14" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BA14" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BB14" s="18"/>
     </row>
-    <row r="15" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>83</v>
@@ -4281,10 +5414,10 @@
         <v>84</v>
       </c>
       <c r="D15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>86</v>
@@ -4305,136 +5438,136 @@
         <v>90</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M15" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="N15" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="N15" s="12" t="s">
+      <c r="O15" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="O15" s="12" t="s">
+      <c r="P15" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="P15" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="Q15" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="R15" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="T15" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="U15" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="U15" s="12" t="s">
+      <c r="V15" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="V15" s="12" t="s">
+      <c r="W15" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="W15" s="12" t="s">
+      <c r="X15" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="X15" s="12" t="s">
+      <c r="Y15" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z15" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="AA15" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB15" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="AC15" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="AD15" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE15" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="AF15" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="Y15" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z15" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA15" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB15" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC15" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="AD15" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="AE15" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="AF15" s="15" t="s">
+      <c r="AG15" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AG15" s="12" t="s">
+      <c r="AH15" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="AH15" s="12" t="s">
+      <c r="AI15" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="AI15" s="12" t="s">
+      <c r="AJ15" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="AJ15" s="12" t="s">
+      <c r="AK15" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AK15" s="12" t="s">
+      <c r="AL15" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="AL15" s="12" t="s">
+      <c r="AM15" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="AM15" s="12" t="s">
+      <c r="AN15" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="AN15" s="12" t="s">
+      <c r="AO15" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP15" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AO15" s="12" t="s">
+      <c r="AQ15" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR15" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="AP15" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="AQ15" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="AR15" s="12" t="s">
+      <c r="AS15" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="AS15" s="15" t="s">
+      <c r="AT15" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="AT15" s="12" t="s">
+      <c r="AU15" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="AU15" s="12" t="s">
+      <c r="AV15" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="AW15" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="AV15" s="12" t="s">
+      <c r="AX15" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AW15" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="AX15" s="12" t="s">
+      <c r="AY15" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="AY15" s="12" t="s">
+      <c r="AZ15" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="AZ15" s="12" t="s">
-        <v>139</v>
-      </c>
       <c r="BA15" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BB15" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="16" spans="1:93" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:93" x14ac:dyDescent="0.35">
       <c r="A16" s="18"/>
       <c r="B16" s="12" t="s">
         <v>91</v>
@@ -4452,151 +5585,151 @@
         <v>95</v>
       </c>
       <c r="G16" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="I16" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I16" s="12" t="s">
+      <c r="J16" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="K16" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>96</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>96</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P16" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q16" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="R16" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="S16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="T16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="U16" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="V16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="W16" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="X16" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y16" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="Z16" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AA16" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="AB16" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AC16" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="T16" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="V16" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="W16" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="X16" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="Y16" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="Z16" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA16" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="AB16" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC16" s="12" t="s">
-        <v>147</v>
-      </c>
       <c r="AD16" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AE16" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AF16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AG16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AH16" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AI16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AJ16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AK16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AM16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AN16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AP16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AQ16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AR16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AT16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AU16" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AV16" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AW16" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="AW16" s="12" t="s">
+      <c r="AX16" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="AX16" s="12" t="s">
-        <v>159</v>
-      </c>
       <c r="AY16" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AZ16" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BA16" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BB16" s="18"/>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>83</v>
@@ -4605,10 +5738,10 @@
         <v>84</v>
       </c>
       <c r="D17" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>86</v>
@@ -4629,25 +5762,25 @@
         <v>90</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18" s="18"/>
       <c r="B18" s="12" t="s">
         <v>91</v>
@@ -4665,40 +5798,40 @@
         <v>95</v>
       </c>
       <c r="G18" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="I18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I18" s="12" t="s">
+      <c r="J18" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="K18" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>96</v>
       </c>
       <c r="M18" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="N18" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="N18" s="12" t="s">
-        <v>205</v>
-      </c>
       <c r="O18" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q18" s="18"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>83</v>
@@ -4707,10 +5840,10 @@
         <v>84</v>
       </c>
       <c r="D19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>86</v>
@@ -4731,7 +5864,7 @@
         <v>90</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>83</v>
@@ -4740,10 +5873,10 @@
         <v>84</v>
       </c>
       <c r="O19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="P19" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="Q19" s="12" t="s">
         <v>86</v>
@@ -4764,13 +5897,13 @@
         <v>90</v>
       </c>
       <c r="W19" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X19" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20" s="18"/>
       <c r="B20" s="12" t="s">
         <v>91</v>
@@ -4788,52 +5921,52 @@
         <v>95</v>
       </c>
       <c r="G20" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="I20" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="J20" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>103</v>
-      </c>
       <c r="K20" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L20" s="12" t="s">
         <v>96</v>
       </c>
       <c r="M20" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="N20" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="N20" s="12" t="s">
+      <c r="O20" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="O20" s="12" t="s">
+      <c r="P20" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="P20" s="16" t="s">
+      <c r="Q20" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="R20" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="Q20" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="R20" s="12" t="s">
+      <c r="S20" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="S20" s="12" t="s">
+      <c r="T20" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="T20" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="U20" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V20" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W20" s="12" t="s">
         <v>96</v>
@@ -4869,34 +6002,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="P12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="12" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>